--- a/scripts/worksheets/Resultados.xlsx
+++ b/scripts/worksheets/Resultados.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="1540" windowWidth="22060" windowHeight="17640" tabRatio="908"/>
+    <workbookView xWindow="5500" yWindow="1540" windowWidth="31880" windowHeight="17640" tabRatio="908" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencas Maximo" sheetId="1" r:id="rId1"/>
     <sheet name="Diferencas Media" sheetId="2" r:id="rId2"/>
     <sheet name="Comparacao ILS x VISILS" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="69">
   <si>
     <t>instance</t>
   </si>
@@ -223,6 +224,12 @@
   <si>
     <t>OPT &gt;= VIS</t>
   </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +416,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="321">
+  <cellStyleXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -731,8 +738,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -782,8 +827,17 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="321">
+  <cellStyles count="359">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -944,6 +998,25 @@
     <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1103,6 +1176,25 @@
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1398,14 +1490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.5" style="1" customWidth="1"/>
     <col min="11" max="15" width="11.5" style="1" customWidth="1"/>
     <col min="16" max="23" width="11.5" customWidth="1"/>
@@ -4325,7 +4416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4413,7 +4504,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="b">
         <f>AND($D3&gt;=MAX($B3,$C3,$S3,$T3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="b">
         <f>AND($C3&gt;=MAX($B3,$D3,$S3,$T3))</f>
@@ -4429,12 +4520,12 @@
       </c>
       <c r="J3" s="5" t="b">
         <f>AND($T3&gt;=MAX($B3,$C3,$D3,$S3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="b">
         <f>D3&gt;=T3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5" t="b">
         <f>C3&gt;=T3</f>
@@ -4453,10 +4544,10 @@
         <v>1183.5999999999999</v>
       </c>
       <c r="S3" s="2">
-        <v>1178</v>
+        <v>1178.0999999999999</v>
       </c>
       <c r="T3" s="14">
-        <v>1188</v>
+        <v>1188.3</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4639,7 +4730,7 @@
         <v>10342.6</v>
       </c>
       <c r="S6" s="5">
-        <v>6595</v>
+        <v>6595.7</v>
       </c>
       <c r="T6" s="15">
         <v>9710</v>
@@ -4704,7 +4795,7 @@
         <v>10507</v>
       </c>
       <c r="T7" s="15">
-        <v>17026</v>
+        <v>17026.900000000001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4763,7 +4854,7 @@
         <v>1809.1</v>
       </c>
       <c r="S8" s="5">
-        <v>1806</v>
+        <v>1806.1</v>
       </c>
       <c r="T8" s="15">
         <v>1796</v>
@@ -4825,7 +4916,7 @@
         <v>7683.4</v>
       </c>
       <c r="S9" s="5">
-        <v>5276</v>
+        <v>5276.4</v>
       </c>
       <c r="T9" s="15">
         <v>7414</v>
@@ -4887,10 +4978,10 @@
         <v>11040</v>
       </c>
       <c r="S10" s="5">
-        <v>9574</v>
+        <v>9574.2000000000007</v>
       </c>
       <c r="T10" s="15">
-        <v>10787</v>
+        <v>10787.2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -4949,10 +5040,10 @@
         <v>15724.2</v>
       </c>
       <c r="S11" s="5">
-        <v>12595</v>
+        <v>12595.4</v>
       </c>
       <c r="T11" s="15">
-        <v>14815</v>
+        <v>14815.5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -5011,10 +5102,10 @@
         <v>24417</v>
       </c>
       <c r="S12" s="5">
-        <v>18732</v>
+        <v>18732.900000000001</v>
       </c>
       <c r="T12" s="15">
-        <v>24087</v>
+        <v>24087.5</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -5073,7 +5164,7 @@
         <v>2507</v>
       </c>
       <c r="S13" s="5">
-        <v>2505</v>
+        <v>2505.4</v>
       </c>
       <c r="T13" s="15">
         <v>2507</v>
@@ -5135,10 +5226,10 @@
         <v>11115.9</v>
       </c>
       <c r="S14" s="5">
-        <v>8881</v>
+        <v>8881.1</v>
       </c>
       <c r="T14" s="15">
-        <v>10924</v>
+        <v>10924.7</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -5197,10 +5288,10 @@
         <v>14183.2</v>
       </c>
       <c r="S15" s="5">
-        <v>12360</v>
+        <v>12360.7</v>
       </c>
       <c r="T15" s="15">
-        <v>14159</v>
+        <v>14159.2</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -5259,10 +5350,10 @@
         <v>20854.8</v>
       </c>
       <c r="S16" s="5">
-        <v>17189</v>
+        <v>17189.900000000001</v>
       </c>
       <c r="T16" s="15">
-        <v>20819</v>
+        <v>20819.7</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -5321,10 +5412,10 @@
         <v>28887.5</v>
       </c>
       <c r="S17" s="5">
-        <v>22026</v>
+        <v>22026.5</v>
       </c>
       <c r="T17" s="15">
-        <v>28894</v>
+        <v>28894.2</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -5383,10 +5474,10 @@
         <v>7832</v>
       </c>
       <c r="S18" s="5">
-        <v>6553</v>
+        <v>6553.4</v>
       </c>
       <c r="T18" s="15">
-        <v>7528</v>
+        <v>7528.2</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -5445,10 +5536,10 @@
         <v>7379.9</v>
       </c>
       <c r="S19" s="5">
-        <v>6219</v>
+        <v>6219.6</v>
       </c>
       <c r="T19" s="15">
-        <v>7109</v>
+        <v>7109.9</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -5507,7 +5598,7 @@
         <v>6609.1</v>
       </c>
       <c r="S20" s="5">
-        <v>5693</v>
+        <v>5693.1</v>
       </c>
       <c r="T20" s="15">
         <v>6413</v>
@@ -5569,10 +5660,10 @@
         <v>5764.7</v>
       </c>
       <c r="S21" s="5">
-        <v>5023</v>
+        <v>5023.8</v>
       </c>
       <c r="T21" s="15">
-        <v>5636</v>
+        <v>5636.2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -5634,7 +5725,7 @@
         <v>5437</v>
       </c>
       <c r="T22" s="15">
-        <v>5911</v>
+        <v>5911.3</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -5693,10 +5784,10 @@
         <v>4554.8</v>
       </c>
       <c r="S23" s="5">
-        <v>4195</v>
+        <v>4195.5</v>
       </c>
       <c r="T23" s="15">
-        <v>4486</v>
+        <v>4486.2</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -5755,10 +5846,10 @@
         <v>5892.3</v>
       </c>
       <c r="S24" s="5">
-        <v>5296</v>
+        <v>5296.6</v>
       </c>
       <c r="T24" s="15">
-        <v>5736</v>
+        <v>5736.5</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -5817,7 +5908,7 @@
         <v>4195.8</v>
       </c>
       <c r="S25" s="5">
-        <v>3909</v>
+        <v>3909.9</v>
       </c>
       <c r="T25" s="15">
         <v>4159</v>
@@ -5879,10 +5970,10 @@
         <v>10586.3</v>
       </c>
       <c r="S26" s="5">
-        <v>8188</v>
+        <v>8188.3</v>
       </c>
       <c r="T26" s="15">
-        <v>9889</v>
+        <v>9889.6</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -5941,10 +6032,10 @@
         <v>8609.2999999999993</v>
       </c>
       <c r="S27" s="5">
-        <v>6863</v>
+        <v>6863.9</v>
       </c>
       <c r="T27" s="15">
-        <v>8147</v>
+        <v>8147.5</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -6003,10 +6094,10 @@
         <v>10193.6</v>
       </c>
       <c r="S28" s="5">
-        <v>8016</v>
+        <v>8016.1</v>
       </c>
       <c r="T28" s="15">
-        <v>9499</v>
+        <v>9499.7000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -6065,10 +6156,10 @@
         <v>7691.8</v>
       </c>
       <c r="S29" s="5">
-        <v>6341</v>
+        <v>6341.3</v>
       </c>
       <c r="T29" s="15">
-        <v>7319</v>
+        <v>7319.3</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -6127,10 +6218,10 @@
         <v>10995.7</v>
       </c>
       <c r="S30" s="5">
-        <v>9756</v>
+        <v>9756.2999999999993</v>
       </c>
       <c r="T30" s="15">
-        <v>10589</v>
+        <v>10589.2</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -6189,10 +6280,10 @@
         <v>10331.4</v>
       </c>
       <c r="S31" s="5">
-        <v>9172</v>
+        <v>9172.9</v>
       </c>
       <c r="T31" s="15">
-        <v>9999</v>
+        <v>9999.7999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -6251,10 +6342,10 @@
         <v>9316.2999999999993</v>
       </c>
       <c r="S32" s="5">
-        <v>8391</v>
+        <v>8391.1</v>
       </c>
       <c r="T32" s="15">
-        <v>9100</v>
+        <v>9100.1</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -6313,7 +6404,7 @@
         <v>8137.1</v>
       </c>
       <c r="S33" s="5">
-        <v>7418</v>
+        <v>7418.9</v>
       </c>
       <c r="T33" s="15">
         <v>7968</v>
@@ -6375,7 +6466,7 @@
         <v>8851.7999999999993</v>
       </c>
       <c r="S34" s="5">
-        <v>8151</v>
+        <v>8151.7</v>
       </c>
       <c r="T34" s="15">
         <v>8660</v>
@@ -6437,10 +6528,10 @@
         <v>6536.3</v>
       </c>
       <c r="S35" s="5">
-        <v>6138</v>
+        <v>6138.4</v>
       </c>
       <c r="T35" s="15">
-        <v>6470</v>
+        <v>6470.2</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -6499,10 +6590,10 @@
         <v>8459.2999999999993</v>
       </c>
       <c r="S36" s="5">
-        <v>7849</v>
+        <v>7849.8</v>
       </c>
       <c r="T36" s="15">
-        <v>8326</v>
+        <v>8326.7999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -6561,10 +6652,10 @@
         <v>6044.5</v>
       </c>
       <c r="S37" s="5">
-        <v>5721</v>
+        <v>5721.3</v>
       </c>
       <c r="T37" s="15">
-        <v>5986</v>
+        <v>5986.5</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -6623,10 +6714,10 @@
         <v>15383.2</v>
       </c>
       <c r="S38" s="5">
-        <v>13030</v>
+        <v>13030.8</v>
       </c>
       <c r="T38" s="15">
-        <v>14437</v>
+        <v>14437.7</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -6685,10 +6776,10 @@
         <v>12500.4</v>
       </c>
       <c r="S39" s="5">
-        <v>10776</v>
+        <v>10776.5</v>
       </c>
       <c r="T39" s="15">
-        <v>11883</v>
+        <v>11883.5</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -6747,10 +6838,10 @@
         <v>14957.3</v>
       </c>
       <c r="S40" s="5">
-        <v>12853</v>
+        <v>12853.4</v>
       </c>
       <c r="T40" s="15">
-        <v>14036</v>
+        <v>14036.6</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -6809,10 +6900,10 @@
         <v>11299.3</v>
       </c>
       <c r="S41" s="8">
-        <v>9923</v>
+        <v>9923.2000000000007</v>
       </c>
       <c r="T41" s="16">
-        <v>10790</v>
+        <v>10790.7</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -6836,7 +6927,7 @@
       <c r="E46"/>
       <c r="F46" s="18">
         <f>COUNTIF(F3:F41,"="&amp;TRUE)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" s="18">
         <f>COUNTIF(G3:G41,"="&amp;TRUE)</f>
@@ -6852,12 +6943,12 @@
       </c>
       <c r="J46" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="19">
         <f t="shared" ref="L46:M46" si="8">COUNTIF(L3:L41,"="&amp;TRUE)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46" s="19">
         <f t="shared" si="8"/>
@@ -6943,19 +7034,19 @@
         <v>0.51</v>
       </c>
       <c r="I2" t="b">
-        <f>D2&gt;=B2</f>
+        <f t="shared" ref="I2:I40" si="0">D2&gt;=B2</f>
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <f>B2&gt;D2</f>
+        <f t="shared" ref="J2:J40" si="1">B2&gt;D2</f>
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <f>AND(D2&gt;B2,F2&lt;= 0.05)</f>
+        <f t="shared" ref="K2:K40" si="2">AND(D2&gt;B2,F2&lt;= 0.05)</f>
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <f>AND(B2&gt;D2,F2&lt;= 0.05)</f>
+        <f t="shared" ref="L2:L40" si="3">AND(B2&gt;D2,F2&lt;= 0.05)</f>
         <v>0</v>
       </c>
     </row>
@@ -6984,19 +7075,19 @@
         <v>0.66</v>
       </c>
       <c r="I3" t="b">
-        <f>D3&gt;=B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3" t="b">
-        <f>B3&gt;D3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <f>AND(D3&gt;B3,F3&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <f>AND(B3&gt;D3,F3&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7025,19 +7116,19 @@
         <v>0.72</v>
       </c>
       <c r="I4" t="b">
-        <f>D4&gt;=B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <f>B4&gt;D4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <f>AND(D4&gt;B4,F4&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" t="b">
-        <f>AND(B4&gt;D4,F4&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7066,19 +7157,19 @@
         <v>0.67</v>
       </c>
       <c r="I5" t="b">
-        <f>D5&gt;=B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5" t="b">
-        <f>B5&gt;D5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <f>AND(D5&gt;B5,F5&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5" t="b">
-        <f>AND(B5&gt;D5,F5&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7107,19 +7198,19 @@
         <v>0.9</v>
       </c>
       <c r="I6" t="b">
-        <f>D6&gt;=B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <f>B6&gt;D6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <f>AND(D6&gt;B6,F6&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6" t="b">
-        <f>AND(B6&gt;D6,F6&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,19 +7239,19 @@
         <v>0.53</v>
       </c>
       <c r="I7" t="b">
-        <f>D7&gt;=B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <f>B7&gt;D7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <f>AND(D7&gt;B7,F7&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <f>AND(B7&gt;D7,F7&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7189,19 +7280,19 @@
         <v>0.67</v>
       </c>
       <c r="I8" t="b">
-        <f>D8&gt;=B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <f>B8&gt;D8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <f>AND(D8&gt;B8,F8&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <f>AND(B8&gt;D8,F8&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7230,19 +7321,19 @@
         <v>0.77</v>
       </c>
       <c r="I9" t="b">
-        <f>D9&gt;=B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <f>B9&gt;D9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <f>AND(D9&gt;B9,F9&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <f>AND(B9&gt;D9,F9&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7271,19 +7362,19 @@
         <v>0.63</v>
       </c>
       <c r="I10" t="b">
-        <f>D10&gt;=B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <f>B10&gt;D10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <f>AND(D10&gt;B10,F10&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <f>AND(B10&gt;D10,F10&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7312,19 +7403,19 @@
         <v>0.8</v>
       </c>
       <c r="I11" t="b">
-        <f>D11&gt;=B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11" t="b">
-        <f>B11&gt;D11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <f>AND(D11&gt;B11,F11&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <f>AND(B11&gt;D11,F11&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7353,19 +7444,19 @@
         <v>0.48</v>
       </c>
       <c r="I12" t="b">
-        <f>D12&gt;=B12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <f>B12&gt;D12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <f>AND(D12&gt;B12,F12&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <f>AND(B12&gt;D12,F12&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7394,19 +7485,19 @@
         <v>0.61</v>
       </c>
       <c r="I13" t="b">
-        <f>D13&gt;=B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13" t="b">
-        <f>B13&gt;D13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <f>AND(D13&gt;B13,F13&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <f>AND(B13&gt;D13,F13&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7435,19 +7526,19 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <f>D14&gt;=B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14" t="b">
-        <f>B14&gt;D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <f>AND(D14&gt;B14,F14&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14" t="b">
-        <f>AND(B14&gt;D14,F14&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7476,19 +7567,19 @@
         <v>0.94</v>
       </c>
       <c r="I15" t="b">
-        <f>D15&gt;=B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <f>B15&gt;D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <f>AND(D15&gt;B15,F15&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L15" t="b">
-        <f>AND(B15&gt;D15,F15&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7517,19 +7608,19 @@
         <v>0.97</v>
       </c>
       <c r="I16" t="b">
-        <f>D16&gt;=B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <f>B16&gt;D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <f>AND(D16&gt;B16,F16&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L16" t="b">
-        <f>AND(B16&gt;D16,F16&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7558,19 +7649,19 @@
         <v>0.52</v>
       </c>
       <c r="I17" t="b">
-        <f>D17&gt;=B17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <f>B17&gt;D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <f>AND(D17&gt;B17,F17&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <f>AND(B17&gt;D17,F17&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7599,19 +7690,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I18" t="b">
-        <f>D18&gt;=B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <f>B18&gt;D18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <f>AND(D18&gt;B18,F18&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <f>AND(B18&gt;D18,F18&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7640,19 +7731,19 @@
         <v>0.63</v>
       </c>
       <c r="I19" t="b">
-        <f>D19&gt;=B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <f>B19&gt;D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <f>AND(D19&gt;B19,F19&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" t="b">
-        <f>AND(B19&gt;D19,F19&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7681,19 +7772,19 @@
         <v>0.52</v>
       </c>
       <c r="I20" t="b">
-        <f>D20&gt;=B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J20" t="b">
-        <f>B20&gt;D20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <f>AND(D20&gt;B20,F20&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <f>AND(B20&gt;D20,F20&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7722,19 +7813,19 @@
         <v>0.59</v>
       </c>
       <c r="I21" t="b">
-        <f>D21&gt;=B21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J21" t="b">
-        <f>B21&gt;D21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <f>AND(D21&gt;B21,F21&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <f>AND(B21&gt;D21,F21&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7763,19 +7854,19 @@
         <v>0.6</v>
       </c>
       <c r="I22" t="b">
-        <f>D22&gt;=B22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J22" t="b">
-        <f>B22&gt;D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <f>AND(D22&gt;B22,F22&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" t="b">
-        <f>AND(B22&gt;D22,F22&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7804,19 +7895,19 @@
         <v>0.52</v>
       </c>
       <c r="I23" t="b">
-        <f>D23&gt;=B23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J23" t="b">
-        <f>B23&gt;D23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <f>AND(D23&gt;B23,F23&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <f>AND(B23&gt;D23,F23&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7845,19 +7936,19 @@
         <v>0.5</v>
       </c>
       <c r="I24" t="b">
-        <f>D24&gt;=B24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" t="b">
-        <f>B24&gt;D24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K24" t="b">
-        <f>AND(D24&gt;B24,F24&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <f>AND(B24&gt;D24,F24&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7886,19 +7977,19 @@
         <v>0.59</v>
       </c>
       <c r="I25" t="b">
-        <f>D25&gt;=B25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J25" t="b">
-        <f>B25&gt;D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <f>AND(D25&gt;B25,F25&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" t="b">
-        <f>AND(B25&gt;D25,F25&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7927,19 +8018,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I26" t="b">
-        <f>D26&gt;=B26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J26" t="b">
-        <f>B26&gt;D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <f>AND(D26&gt;B26,F26&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" t="b">
-        <f>AND(B26&gt;D26,F26&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7968,19 +8059,19 @@
         <v>0.49</v>
       </c>
       <c r="I27" t="b">
-        <f>D27&gt;=B27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J27" t="b">
-        <f>B27&gt;D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" t="b">
-        <f>AND(D27&gt;B27,F27&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" t="b">
-        <f>AND(B27&gt;D27,F27&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8009,19 +8100,19 @@
         <v>0.62</v>
       </c>
       <c r="I28" t="b">
-        <f>D28&gt;=B28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28" t="b">
-        <f>B28&gt;D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <f>AND(D28&gt;B28,F28&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" t="b">
-        <f>AND(B28&gt;D28,F28&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8050,19 +8141,19 @@
         <v>0.62</v>
       </c>
       <c r="I29" t="b">
-        <f>D29&gt;=B29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J29" t="b">
-        <f>B29&gt;D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <f>AND(D29&gt;B29,F29&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" t="b">
-        <f>AND(B29&gt;D29,F29&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8091,19 +8182,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I30" t="b">
-        <f>D30&gt;=B30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J30" t="b">
-        <f>B30&gt;D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <f>AND(D30&gt;B30,F30&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" t="b">
-        <f>AND(B30&gt;D30,F30&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8132,19 +8223,19 @@
         <v>0.64</v>
       </c>
       <c r="I31" t="b">
-        <f>D31&gt;=B31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J31" t="b">
-        <f>B31&gt;D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" t="b">
-        <f>AND(D31&gt;B31,F31&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" t="b">
-        <f>AND(B31&gt;D31,F31&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8173,19 +8264,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I32" t="b">
-        <f>D32&gt;=B32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J32" t="b">
-        <f>B32&gt;D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <f>AND(D32&gt;B32,F32&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" t="b">
-        <f>AND(B32&gt;D32,F32&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8214,19 +8305,19 @@
         <v>0.62</v>
       </c>
       <c r="I33" t="b">
-        <f>D33&gt;=B33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J33" t="b">
-        <f>B33&gt;D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" t="b">
-        <f>AND(D33&gt;B33,F33&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" t="b">
-        <f>AND(B33&gt;D33,F33&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8255,19 +8346,19 @@
         <v>0.59</v>
       </c>
       <c r="I34" t="b">
-        <f>D34&gt;=B34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J34" t="b">
-        <f>B34&gt;D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <f>AND(D34&gt;B34,F34&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" t="b">
-        <f>AND(B34&gt;D34,F34&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8296,19 +8387,19 @@
         <v>0.46</v>
       </c>
       <c r="I35" t="b">
-        <f>D35&gt;=B35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <f>B35&gt;D35</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K35" t="b">
-        <f>AND(D35&gt;B35,F35&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" t="b">
-        <f>AND(B35&gt;D35,F35&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8337,19 +8428,19 @@
         <v>0.63</v>
       </c>
       <c r="I36" t="b">
-        <f>D36&gt;=B36</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J36" t="b">
-        <f>B36&gt;D36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <f>AND(D36&gt;B36,F36&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" t="b">
-        <f>AND(B36&gt;D36,F36&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8378,19 +8469,19 @@
         <v>0.61</v>
       </c>
       <c r="I37" t="b">
-        <f>D37&gt;=B37</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J37" t="b">
-        <f>B37&gt;D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <f>AND(D37&gt;B37,F37&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" t="b">
-        <f>AND(B37&gt;D37,F37&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8419,19 +8510,19 @@
         <v>0.64</v>
       </c>
       <c r="I38" t="b">
-        <f>D38&gt;=B38</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J38" t="b">
-        <f>B38&gt;D38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" t="b">
-        <f>AND(D38&gt;B38,F38&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" t="b">
-        <f>AND(B38&gt;D38,F38&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8460,19 +8551,19 @@
         <v>0.7</v>
       </c>
       <c r="I39" t="b">
-        <f>D39&gt;=B39</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J39" t="b">
-        <f>B39&gt;D39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <f>AND(D39&gt;B39,F39&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L39" t="b">
-        <f>AND(B39&gt;D39,F39&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8501,19 +8592,19 @@
         <v>0.6</v>
       </c>
       <c r="I40" t="b">
-        <f>D40&gt;=B40</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J40" t="b">
-        <f>B40&gt;D40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <f>AND(D40&gt;B40,F40&lt;= 0.05)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" t="b">
-        <f>AND(B40&gt;D40,F40&lt;= 0.05)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8538,6 +8629,1829 @@
       <c r="L42" s="17">
         <f>COUNTIF(L2:L40,"="&amp;TRUE)</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1204</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1161</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1204</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1204</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1187</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1201</v>
+      </c>
+      <c r="H3" s="39">
+        <v>1136.4332999999999</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1185.5</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1188.2666999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'Diferencas Media'!S3</f>
+        <v>1178.0999999999999</v>
+      </c>
+      <c r="L3" s="14">
+        <f>'Diferencas Media'!T3</f>
+        <v>1188.3</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="5" t="str">
+        <f>LEFT(A3&amp;"     ",10)&amp;" &amp; "&amp;RIGHT("           "&amp;TEXT(B3,"#.##0"),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(C3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(C3,"#.##0")&amp;IF(C3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(D3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(D3,"#.##0")&amp;IF(D3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(E3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(E3,"#.##0")&amp;IF(E3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(F3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(F3,"#.##0")&amp;IF(F3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(G3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(G3,"#.##0")&amp;IF(G3&gt;=MAX($C3:$G3),"}",""),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(H3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(H3,"#.##0,0")&amp;IF(H3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(I3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(I3,"#.##0,0")&amp;IF(I3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(J3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(J3,"#.##0,0")&amp;IF(J3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(K3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(K3,"#.##0,0")&amp;IF(K3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(L3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(L3,"#.##0,0")&amp;IF(L3&gt;=MAX($H3:$L3),"}",""),14)&amp;" \\"</f>
+        <v>nrp1-30    &amp;          1.204#            &amp;          1.161 &amp;     \bf{1.204} &amp;     \bf{1.204} &amp;          1.187 &amp;          1.201#            &amp;        1.136,4 &amp;        1.185,5 &amp;        1.188,3 &amp;        1.178,1 &amp;   \bf{1.188,3} \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4970</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4447</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4852</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4876</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2794</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4726</v>
+      </c>
+      <c r="H4" s="42">
+        <v>4315.2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>4706.2</v>
+      </c>
+      <c r="J4" s="44">
+        <v>4756.4332999999997</v>
+      </c>
+      <c r="K4" s="5">
+        <f>'Diferencas Media'!S4</f>
+        <v>2737</v>
+      </c>
+      <c r="L4" s="15">
+        <f>'Diferencas Media'!T4</f>
+        <v>4605</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="5" t="str">
+        <f t="shared" ref="N4:N41" si="0">LEFT(A4&amp;"     ",10)&amp;" &amp; "&amp;RIGHT("           "&amp;TEXT(B4,"#.##0"),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(C4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(C4,"#.##0")&amp;IF(C4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(D4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(D4,"#.##0")&amp;IF(D4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(E4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(E4,"#.##0")&amp;IF(E4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(F4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(F4,"#.##0")&amp;IF(F4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(G4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(G4,"#.##0")&amp;IF(G4&gt;=MAX($C4:$G4),"}",""),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(H4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(H4,"#.##0,0")&amp;IF(H4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(I4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(I4,"#.##0,0")&amp;IF(I4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(J4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(J4,"#.##0,0")&amp;IF(J4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(K4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(K4,"#.##0,0")&amp;IF(K4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(L4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(L4,"#.##0,0")&amp;IF(L4&gt;=MAX($H4:$L4),"}",""),14)&amp;" \\"</f>
+        <v>nrp2-30    &amp;          4.970#            &amp;          4.447 &amp;          4.852 &amp;     \bf{4.876} &amp;          2.794 &amp;          4.726#            &amp;        4.315,2 &amp;        4.706,2 &amp;   \bf{4.756,4} &amp;        2.737,0 &amp;        4.605,0 \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7488</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5896</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7410</v>
+      </c>
+      <c r="E5" s="15">
+        <v>7418</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5851</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7123</v>
+      </c>
+      <c r="H5" s="42">
+        <v>5641.4332999999997</v>
+      </c>
+      <c r="I5" s="43">
+        <v>7318.1666999999998</v>
+      </c>
+      <c r="J5" s="44">
+        <v>7348.9332999999997</v>
+      </c>
+      <c r="K5" s="5">
+        <f>'Diferencas Media'!S5</f>
+        <v>5719</v>
+      </c>
+      <c r="L5" s="15">
+        <f>'Diferencas Media'!T5</f>
+        <v>7086</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp3-30    &amp;          7.488#            &amp;          5.896 &amp;          7.410 &amp;     \bf{7.418} &amp;          5.851 &amp;          7.123#            &amp;        5.641,4 &amp;        7.318,2 &amp;   \bf{7.348,9} &amp;        5.719,0 &amp;        7.086,0 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10690</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7936</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10499</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10553</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6675</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9818</v>
+      </c>
+      <c r="H6" s="42">
+        <v>7580.6</v>
+      </c>
+      <c r="I6" s="43">
+        <v>10330.7667</v>
+      </c>
+      <c r="J6" s="44">
+        <v>10384.3333</v>
+      </c>
+      <c r="K6" s="5">
+        <f>'Diferencas Media'!S6</f>
+        <v>6595.7</v>
+      </c>
+      <c r="L6" s="15">
+        <f>'Diferencas Media'!T6</f>
+        <v>9710</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp4-30    &amp;         10.690#            &amp;          7.936 &amp;         10.499 &amp;    \bf{10.553} &amp;          6.675 &amp;          9.818#            &amp;        7.580,6 &amp;       10.330,8 &amp;  \bf{10.384,3} &amp;        6.595,7 &amp;        9.710,0 \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
+        <v>18510</v>
+      </c>
+      <c r="C7" s="11">
+        <v>15898</v>
+      </c>
+      <c r="D7" s="5">
+        <v>17926</v>
+      </c>
+      <c r="E7" s="15">
+        <v>18032</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10689</v>
+      </c>
+      <c r="G7" s="5">
+        <v>17200</v>
+      </c>
+      <c r="H7" s="42">
+        <v>15736.1667</v>
+      </c>
+      <c r="I7" s="43">
+        <v>17078.033299999999</v>
+      </c>
+      <c r="J7" s="44">
+        <v>17683.433300000001</v>
+      </c>
+      <c r="K7" s="5">
+        <f>'Diferencas Media'!S7</f>
+        <v>10507</v>
+      </c>
+      <c r="L7" s="15">
+        <f>'Diferencas Media'!T7</f>
+        <v>17026.900000000001</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp5-30    &amp;         18.510#            &amp;         15.898 &amp;         17.926 &amp;    \bf{18.032} &amp;         10.689 &amp;         17.200#            &amp;       15.736,2 &amp;       17.078,0 &amp;  \bf{17.683,4} &amp;       10.507,0 &amp;       17.026,9 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1840</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1769</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1836</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1836</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1820</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1824</v>
+      </c>
+      <c r="H8" s="42">
+        <v>1720.1</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1805.7</v>
+      </c>
+      <c r="J8" s="44">
+        <v>1807.1333</v>
+      </c>
+      <c r="K8" s="5">
+        <f>'Diferencas Media'!S8</f>
+        <v>1806.1</v>
+      </c>
+      <c r="L8" s="15">
+        <f>'Diferencas Media'!T8</f>
+        <v>1796</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp1-50    &amp;          1.840#            &amp;          1.769 &amp;     \bf{1.836} &amp;     \bf{1.836} &amp;          1.820 &amp;          1.824#            &amp;        1.720,1 &amp;        1.805,7 &amp;   \bf{1.807,1} &amp;        1.806,1 &amp;        1.796,0 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8065</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7413</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7794</v>
+      </c>
+      <c r="E9" s="15">
+        <v>7822</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5363</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7566</v>
+      </c>
+      <c r="H9" s="42">
+        <v>7299.9666999999999</v>
+      </c>
+      <c r="I9" s="43">
+        <v>7654.8333000000002</v>
+      </c>
+      <c r="J9" s="44">
+        <v>7701.4</v>
+      </c>
+      <c r="K9" s="5">
+        <f>'Diferencas Media'!S9</f>
+        <v>5276.4</v>
+      </c>
+      <c r="L9" s="15">
+        <f>'Diferencas Media'!T9</f>
+        <v>7414</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp2-50    &amp;          8.065#            &amp;          7.413 &amp;          7.794 &amp;     \bf{7.822} &amp;          5.363 &amp;          7.566#            &amp;        7.300,0 &amp;        7.654,8 &amp;   \bf{7.701,4} &amp;        5.276,4 &amp;        7.414,0 \\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11159</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9781</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11074</v>
+      </c>
+      <c r="E10" s="15">
+        <v>11127</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9639</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10897</v>
+      </c>
+      <c r="H10" s="42">
+        <v>9581.7000000000007</v>
+      </c>
+      <c r="I10" s="43">
+        <v>11015.7667</v>
+      </c>
+      <c r="J10" s="44">
+        <v>11052.066699999999</v>
+      </c>
+      <c r="K10" s="5">
+        <f>'Diferencas Media'!S10</f>
+        <v>9574.2000000000007</v>
+      </c>
+      <c r="L10" s="15">
+        <f>'Diferencas Media'!T10</f>
+        <v>10787.2</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp3-50    &amp;         11.159#            &amp;          9.781 &amp;         11.074 &amp;    \bf{11.127} &amp;          9.639 &amp;         10.897#            &amp;        9.581,7 &amp;       11.015,8 &amp;  \bf{11.052,1} &amp;        9.574,2 &amp;       10.787,2 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11">
+        <v>15985</v>
+      </c>
+      <c r="C11" s="11">
+        <v>13367</v>
+      </c>
+      <c r="D11" s="5">
+        <v>15788</v>
+      </c>
+      <c r="E11" s="15">
+        <v>15856</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12781</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15025</v>
+      </c>
+      <c r="H11" s="42">
+        <v>13170.533299999999</v>
+      </c>
+      <c r="I11" s="43">
+        <v>15683.2333</v>
+      </c>
+      <c r="J11" s="44">
+        <v>15713.6667</v>
+      </c>
+      <c r="K11" s="5">
+        <f>'Diferencas Media'!S11</f>
+        <v>12595.4</v>
+      </c>
+      <c r="L11" s="15">
+        <f>'Diferencas Media'!T11</f>
+        <v>14815.5</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp4-50    &amp;         15.985#            &amp;         13.367 &amp;         15.788 &amp;    \bf{15.856} &amp;         12.781 &amp;         15.025#            &amp;       13.170,5 &amp;       15.683,2 &amp;  \bf{15.713,7} &amp;       12.595,4 &amp;       14.815,5 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11">
+        <v>24701</v>
+      </c>
+      <c r="C12" s="11">
+        <v>23011</v>
+      </c>
+      <c r="D12" s="5">
+        <v>24473</v>
+      </c>
+      <c r="E12" s="15">
+        <v>24598</v>
+      </c>
+      <c r="F12" s="5">
+        <v>18950</v>
+      </c>
+      <c r="G12" s="5">
+        <v>24240</v>
+      </c>
+      <c r="H12" s="42">
+        <v>22726.7</v>
+      </c>
+      <c r="I12" s="43">
+        <v>24362.2667</v>
+      </c>
+      <c r="J12" s="44">
+        <v>24451.066699999999</v>
+      </c>
+      <c r="K12" s="5">
+        <f>'Diferencas Media'!S12</f>
+        <v>18732.900000000001</v>
+      </c>
+      <c r="L12" s="15">
+        <f>'Diferencas Media'!T12</f>
+        <v>24087.5</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp5-50    &amp;         24.701#            &amp;         23.011 &amp;         24.473 &amp;    \bf{24.598} &amp;         18.950 &amp;         24.240#            &amp;       22.726,7 &amp;       24.362,3 &amp;  \bf{24.451,1} &amp;       18.732,9 &amp;       24.087,5 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2507</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2472</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2507</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2507</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2507</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2507</v>
+      </c>
+      <c r="H13" s="42">
+        <v>2434.4666999999999</v>
+      </c>
+      <c r="I13" s="43">
+        <v>2504.8667</v>
+      </c>
+      <c r="J13" s="44">
+        <v>2504.6667000000002</v>
+      </c>
+      <c r="K13" s="5">
+        <f>'Diferencas Media'!S13</f>
+        <v>2505.4</v>
+      </c>
+      <c r="L13" s="15">
+        <f>'Diferencas Media'!T13</f>
+        <v>2507</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp1-70    &amp;          2.507#            &amp;          2.472 &amp;     \bf{2.507} &amp;     \bf{2.507} &amp;     \bf{2.507} &amp;     \bf{2.507}#            &amp;        2.434,5 &amp;        2.504,9 &amp;        2.504,7 &amp;        2.505,4 &amp;   \bf{2.507,0} \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11316</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10888</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11172</v>
+      </c>
+      <c r="E14" s="15">
+        <v>11184</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9018</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10987</v>
+      </c>
+      <c r="H14" s="42">
+        <v>10836.6667</v>
+      </c>
+      <c r="I14" s="43">
+        <v>11092.6667</v>
+      </c>
+      <c r="J14" s="44">
+        <v>11116.7333</v>
+      </c>
+      <c r="K14" s="5">
+        <f>'Diferencas Media'!S14</f>
+        <v>8881.1</v>
+      </c>
+      <c r="L14" s="15">
+        <f>'Diferencas Media'!T14</f>
+        <v>10924.7</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp2-70    &amp;         11.316#            &amp;         10.888 &amp;         11.172 &amp;    \bf{11.184} &amp;          9.018 &amp;         10.987#            &amp;       10.836,7 &amp;       11.092,7 &amp;  \bf{11.116,7} &amp;        8.881,1 &amp;       10.924,7 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14196</v>
+      </c>
+      <c r="C15" s="11">
+        <v>13892</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14169</v>
+      </c>
+      <c r="E15" s="15">
+        <v>14192</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12454</v>
+      </c>
+      <c r="G15" s="5">
+        <v>14180</v>
+      </c>
+      <c r="H15" s="42">
+        <v>13753.6333</v>
+      </c>
+      <c r="I15" s="43">
+        <v>14148.1667</v>
+      </c>
+      <c r="J15" s="44">
+        <v>14182.533299999999</v>
+      </c>
+      <c r="K15" s="5">
+        <f>'Diferencas Media'!S15</f>
+        <v>12360.7</v>
+      </c>
+      <c r="L15" s="15">
+        <f>'Diferencas Media'!T15</f>
+        <v>14159.2</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp3-70    &amp;         14.196#            &amp;         13.892 &amp;         14.169 &amp;    \bf{14.192} &amp;         12.454 &amp;         14.180#            &amp;       13.753,6 &amp;       14.148,2 &amp;  \bf{14.182,5} &amp;       12.360,7 &amp;       14.159,2 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20913</v>
+      </c>
+      <c r="C16" s="11">
+        <v>19968</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20872</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20900</v>
+      </c>
+      <c r="F16" s="5">
+        <v>17327</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20853</v>
+      </c>
+      <c r="H16" s="42">
+        <v>19805.533299999999</v>
+      </c>
+      <c r="I16" s="43">
+        <v>20762.866699999999</v>
+      </c>
+      <c r="J16" s="44">
+        <v>20850.2667</v>
+      </c>
+      <c r="K16" s="5">
+        <f>'Diferencas Media'!S16</f>
+        <v>17189.900000000001</v>
+      </c>
+      <c r="L16" s="15">
+        <f>'Diferencas Media'!T16</f>
+        <v>20819.7</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp4-70    &amp;         20.913#            &amp;         19.968 &amp;         20.872 &amp;    \bf{20.900} &amp;         17.327 &amp;         20.853#            &amp;       19.805,5 &amp;       20.762,9 &amp;  \bf{20.850,3} &amp;       17.189,9 &amp;       20.819,7 \\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>28912</v>
+      </c>
+      <c r="C17" s="11">
+        <v>28777</v>
+      </c>
+      <c r="D17" s="5">
+        <v>28887</v>
+      </c>
+      <c r="E17" s="15">
+        <v>28908</v>
+      </c>
+      <c r="F17" s="5">
+        <v>22174</v>
+      </c>
+      <c r="G17" s="5">
+        <v>28909</v>
+      </c>
+      <c r="H17" s="42">
+        <v>28697.7</v>
+      </c>
+      <c r="I17" s="43">
+        <v>28850.033299999999</v>
+      </c>
+      <c r="J17" s="44">
+        <v>28892.7667</v>
+      </c>
+      <c r="K17" s="5">
+        <f>'Diferencas Media'!S17</f>
+        <v>22026.5</v>
+      </c>
+      <c r="L17" s="15">
+        <f>'Diferencas Media'!T17</f>
+        <v>28894.2</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp5-70    &amp;         28.912#            &amp;         28.777 &amp;         28.887 &amp;         28.908 &amp;         22.174 &amp;    \bf{28.909}#            &amp;       28.697,7 &amp;       28.850,0 &amp;       28.892,8 &amp;       22.026,5 &amp;  \bf{28.894,2} \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11">
+        <v>7919</v>
+      </c>
+      <c r="C18" s="11">
+        <v>6092</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7873</v>
+      </c>
+      <c r="E18" s="15">
+        <v>7885</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6662</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7572</v>
+      </c>
+      <c r="H18" s="42">
+        <v>5919.3666999999996</v>
+      </c>
+      <c r="I18" s="43">
+        <v>7829.3666999999996</v>
+      </c>
+      <c r="J18" s="44">
+        <v>7830</v>
+      </c>
+      <c r="K18" s="5">
+        <f>'Diferencas Media'!S18</f>
+        <v>6553.4</v>
+      </c>
+      <c r="L18" s="15">
+        <f>'Diferencas Media'!T18</f>
+        <v>7528.2</v>
+      </c>
+      <c r="M18" s="43"/>
+      <c r="N18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e1-30  &amp;          7.919#            &amp;          6.092 &amp;          7.873 &amp;     \bf{7.885} &amp;          6.662 &amp;          7.572#            &amp;        5.919,4 &amp;        7.829,4 &amp;   \bf{7.830,0} &amp;        6.553,4 &amp;        7.528,2 \\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>7446</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5752</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7411</v>
+      </c>
+      <c r="E19" s="15">
+        <v>7418</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6275</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7169</v>
+      </c>
+      <c r="H19" s="42">
+        <v>5531.7</v>
+      </c>
+      <c r="I19" s="43">
+        <v>7377.5</v>
+      </c>
+      <c r="J19" s="44">
+        <v>7382.9</v>
+      </c>
+      <c r="K19" s="5">
+        <f>'Diferencas Media'!S19</f>
+        <v>6219.6</v>
+      </c>
+      <c r="L19" s="15">
+        <f>'Diferencas Media'!T19</f>
+        <v>7109.9</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e2-30  &amp;          7.446#            &amp;          5.752 &amp;          7.411 &amp;     \bf{7.418} &amp;          6.275 &amp;          7.169#            &amp;        5.531,7 &amp;        7.377,5 &amp;   \bf{7.382,9} &amp;        6.219,6 &amp;        7.109,9 \\</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11">
+        <v>6666</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5177</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6642</v>
+      </c>
+      <c r="E20" s="15">
+        <v>6655</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5795</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6461</v>
+      </c>
+      <c r="H20" s="42">
+        <v>5044.1333000000004</v>
+      </c>
+      <c r="I20" s="43">
+        <v>6606.4666999999999</v>
+      </c>
+      <c r="J20" s="44">
+        <v>6614.0667000000003</v>
+      </c>
+      <c r="K20" s="5">
+        <f>'Diferencas Media'!S20</f>
+        <v>5693.1</v>
+      </c>
+      <c r="L20" s="15">
+        <f>'Diferencas Media'!T20</f>
+        <v>6413</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="N20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e3-30  &amp;          6.666#            &amp;          5.177 &amp;          6.642 &amp;     \bf{6.655} &amp;          5.795 &amp;          6.461#            &amp;        5.044,1 &amp;        6.606,5 &amp;   \bf{6.614,1} &amp;        5.693,1 &amp;        6.413,0 \\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11">
+        <v>5891</v>
+      </c>
+      <c r="C21" s="11">
+        <v>4554</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5789</v>
+      </c>
+      <c r="E21" s="15">
+        <v>5794</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5065</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5692</v>
+      </c>
+      <c r="H21" s="42">
+        <v>4438.6333000000004</v>
+      </c>
+      <c r="I21" s="43">
+        <v>5761.8333000000002</v>
+      </c>
+      <c r="J21" s="44">
+        <v>5762.6333000000004</v>
+      </c>
+      <c r="K21" s="5">
+        <f>'Diferencas Media'!S21</f>
+        <v>5023.8</v>
+      </c>
+      <c r="L21" s="15">
+        <f>'Diferencas Media'!T21</f>
+        <v>5636.2</v>
+      </c>
+      <c r="M21" s="43"/>
+      <c r="N21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e4-30  &amp;          5.891#            &amp;          4.554 &amp;          5.789 &amp;     \bf{5.794} &amp;          5.065 &amp;          5.692#            &amp;        4.438,6 &amp;        5.761,8 &amp;   \bf{5.762,6} &amp;        5.023,8 &amp;        5.636,2 \\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11">
+        <v>6130</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4939</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6105</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6113</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5494</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5938</v>
+      </c>
+      <c r="H22" s="42">
+        <v>4799.8</v>
+      </c>
+      <c r="I22" s="43">
+        <v>6076.4</v>
+      </c>
+      <c r="J22" s="44">
+        <v>6081.6666999999998</v>
+      </c>
+      <c r="K22" s="5">
+        <f>'Diferencas Media'!S22</f>
+        <v>5437</v>
+      </c>
+      <c r="L22" s="15">
+        <f>'Diferencas Media'!T22</f>
+        <v>5911.3</v>
+      </c>
+      <c r="M22" s="43"/>
+      <c r="N22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g1-30  &amp;          6.130#            &amp;          4.939 &amp;          6.105 &amp;     \bf{6.113} &amp;          5.494 &amp;          5.938#            &amp;        4.799,8 &amp;        6.076,4 &amp;   \bf{6.081,7} &amp;        5.437,0 &amp;        5.911,3 \\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4580</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3775</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4567</v>
+      </c>
+      <c r="E23" s="15">
+        <v>4572</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4256</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4526</v>
+      </c>
+      <c r="H23" s="42">
+        <v>3672.9333000000001</v>
+      </c>
+      <c r="I23" s="43">
+        <v>4549.1000000000004</v>
+      </c>
+      <c r="J23" s="44">
+        <v>4553.2</v>
+      </c>
+      <c r="K23" s="5">
+        <f>'Diferencas Media'!S23</f>
+        <v>4195.5</v>
+      </c>
+      <c r="L23" s="15">
+        <f>'Diferencas Media'!T23</f>
+        <v>4486.2</v>
+      </c>
+      <c r="M23" s="43"/>
+      <c r="N23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g2-30  &amp;          4.580#            &amp;          3.775 &amp;          4.567 &amp;     \bf{4.572} &amp;          4.256 &amp;          4.526#            &amp;        3.672,9 &amp;        4.549,1 &amp;   \bf{4.553,2} &amp;        4.195,5 &amp;        4.486,2 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="11">
+        <v>5932</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4842</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5917</v>
+      </c>
+      <c r="E24" s="15">
+        <v>5913</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5351</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5802</v>
+      </c>
+      <c r="H24" s="42">
+        <v>4681.1000000000004</v>
+      </c>
+      <c r="I24" s="43">
+        <v>5887.7667000000001</v>
+      </c>
+      <c r="J24" s="44">
+        <v>5889.2667000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <f>'Diferencas Media'!S24</f>
+        <v>5296.6</v>
+      </c>
+      <c r="L24" s="15">
+        <f>'Diferencas Media'!T24</f>
+        <v>5736.5</v>
+      </c>
+      <c r="M24" s="43"/>
+      <c r="N24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g3-30  &amp;          5.932#            &amp;          4.842 &amp;     \bf{5.917} &amp;          5.913 &amp;          5.351 &amp;          5.802#            &amp;        4.681,1 &amp;        5.887,8 &amp;   \bf{5.889,3} &amp;        5.296,6 &amp;        5.736,5 \\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4218</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3463</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4213</v>
+      </c>
+      <c r="E25" s="15">
+        <v>4210</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3951</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4190</v>
+      </c>
+      <c r="H25" s="42">
+        <v>3395.2667000000001</v>
+      </c>
+      <c r="I25" s="43">
+        <v>4195.7</v>
+      </c>
+      <c r="J25" s="44">
+        <v>4194.6000000000004</v>
+      </c>
+      <c r="K25" s="5">
+        <f>'Diferencas Media'!S25</f>
+        <v>3909.9</v>
+      </c>
+      <c r="L25" s="15">
+        <f>'Diferencas Media'!T25</f>
+        <v>4159</v>
+      </c>
+      <c r="M25" s="43"/>
+      <c r="N25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g4-30  &amp;          4.218#            &amp;          3.463 &amp;     \bf{4.213} &amp;          4.210 &amp;          3.951 &amp;          4.190#            &amp;        3.395,3 &amp;   \bf{4.195,7} &amp;        4.194,6 &amp;        3.909,9 &amp;        4.159,0 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11">
+        <v>10770</v>
+      </c>
+      <c r="C26" s="11">
+        <v>7720</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10683</v>
+      </c>
+      <c r="E26" s="15">
+        <v>10702</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8268</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10008</v>
+      </c>
+      <c r="H26" s="42">
+        <v>7545.9666999999999</v>
+      </c>
+      <c r="I26" s="43">
+        <v>10574.5</v>
+      </c>
+      <c r="J26" s="44">
+        <v>10590.1667</v>
+      </c>
+      <c r="K26" s="5">
+        <f>'Diferencas Media'!S26</f>
+        <v>8188.3</v>
+      </c>
+      <c r="L26" s="15">
+        <f>'Diferencas Media'!T26</f>
+        <v>9889.6</v>
+      </c>
+      <c r="M26" s="43"/>
+      <c r="N26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m1-30  &amp;         10.770#            &amp;          7.720 &amp;         10.683 &amp;    \bf{10.702} &amp;          8.268 &amp;         10.008#            &amp;        7.546,0 &amp;       10.574,5 &amp;  \bf{10.590,2} &amp;        8.188,3 &amp;        9.889,6 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8707</v>
+      </c>
+      <c r="C27" s="11">
+        <v>6521</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8647</v>
+      </c>
+      <c r="E27" s="15">
+        <v>8658</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6928</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8272</v>
+      </c>
+      <c r="H27" s="42">
+        <v>6178.4332999999997</v>
+      </c>
+      <c r="I27" s="43">
+        <v>8593.7000000000007</v>
+      </c>
+      <c r="J27" s="44">
+        <v>8601.0666999999994</v>
+      </c>
+      <c r="K27" s="5">
+        <f>'Diferencas Media'!S27</f>
+        <v>6863.9</v>
+      </c>
+      <c r="L27" s="15">
+        <f>'Diferencas Media'!T27</f>
+        <v>8147.5</v>
+      </c>
+      <c r="M27" s="43"/>
+      <c r="N27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m2-30  &amp;          8.707#            &amp;          6.521 &amp;          8.647 &amp;     \bf{8.658} &amp;          6.928 &amp;          8.272#            &amp;        6.178,4 &amp;        8.593,7 &amp;   \bf{8.601,1} &amp;        6.863,9 &amp;        8.147,5 \\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="11">
+        <v>10391</v>
+      </c>
+      <c r="C28" s="11">
+        <v>7397</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10271</v>
+      </c>
+      <c r="E28" s="15">
+        <v>10272</v>
+      </c>
+      <c r="F28" s="5">
+        <v>8091</v>
+      </c>
+      <c r="G28" s="5">
+        <v>9559</v>
+      </c>
+      <c r="H28" s="42">
+        <v>7265.0333000000001</v>
+      </c>
+      <c r="I28" s="43">
+        <v>10192.3667</v>
+      </c>
+      <c r="J28" s="44">
+        <v>10194.6333</v>
+      </c>
+      <c r="K28" s="5">
+        <f>'Diferencas Media'!S28</f>
+        <v>8016.1</v>
+      </c>
+      <c r="L28" s="15">
+        <f>'Diferencas Media'!T28</f>
+        <v>9499.7000000000007</v>
+      </c>
+      <c r="M28" s="43"/>
+      <c r="N28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m3-30  &amp;         10.391#            &amp;          7.397 &amp;         10.271 &amp;    \bf{10.272} &amp;          8.091 &amp;          9.559#            &amp;        7.265,0 &amp;       10.192,4 &amp;  \bf{10.194,6} &amp;        8.016,1 &amp;        9.499,7 \\</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="11">
+        <v>7777</v>
+      </c>
+      <c r="C29" s="11">
+        <v>5724</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7730</v>
+      </c>
+      <c r="E29" s="15">
+        <v>7743</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6413</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7408</v>
+      </c>
+      <c r="H29" s="42">
+        <v>5579.9332999999997</v>
+      </c>
+      <c r="I29" s="43">
+        <v>7683.8</v>
+      </c>
+      <c r="J29" s="44">
+        <v>7692.0667000000003</v>
+      </c>
+      <c r="K29" s="5">
+        <f>'Diferencas Media'!S29</f>
+        <v>6341.3</v>
+      </c>
+      <c r="L29" s="15">
+        <f>'Diferencas Media'!T29</f>
+        <v>7319.3</v>
+      </c>
+      <c r="M29" s="43"/>
+      <c r="N29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m4-30  &amp;          7.777#            &amp;          5.724 &amp;          7.730 &amp;     \bf{7.743} &amp;          6.413 &amp;          7.408#            &amp;        5.579,9 &amp;        7.683,8 &amp;   \bf{7.692,1} &amp;        6.341,3 &amp;        7.319,3 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="11">
+        <v>11070</v>
+      </c>
+      <c r="C30" s="11">
+        <v>9521</v>
+      </c>
+      <c r="D30" s="5">
+        <v>11028</v>
+      </c>
+      <c r="E30" s="15">
+        <v>11040</v>
+      </c>
+      <c r="F30" s="5">
+        <v>9801</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10664</v>
+      </c>
+      <c r="H30" s="42">
+        <v>9344.6332999999995</v>
+      </c>
+      <c r="I30" s="43">
+        <v>10988.6667</v>
+      </c>
+      <c r="J30" s="44">
+        <v>11001.1333</v>
+      </c>
+      <c r="K30" s="5">
+        <f>'Diferencas Media'!S30</f>
+        <v>9756.2999999999993</v>
+      </c>
+      <c r="L30" s="15">
+        <f>'Diferencas Media'!T30</f>
+        <v>10589.2</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e1-50  &amp;         11.070#            &amp;          9.521 &amp;         11.028 &amp;    \bf{11.040} &amp;          9.801 &amp;         10.664#            &amp;        9.344,6 &amp;       10.988,7 &amp;  \bf{11.001,1} &amp;        9.756,3 &amp;       10.589,2 \\</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="11">
+        <v>10381</v>
+      </c>
+      <c r="C31" s="11">
+        <v>8961</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10350</v>
+      </c>
+      <c r="E31" s="15">
+        <v>10359</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9203</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10098</v>
+      </c>
+      <c r="H31" s="42">
+        <v>8760.0666999999994</v>
+      </c>
+      <c r="I31" s="43">
+        <v>10325.1333</v>
+      </c>
+      <c r="J31" s="44">
+        <v>10330.033299999999</v>
+      </c>
+      <c r="K31" s="5">
+        <f>'Diferencas Media'!S31</f>
+        <v>9172.9</v>
+      </c>
+      <c r="L31" s="15">
+        <f>'Diferencas Media'!T31</f>
+        <v>9999.7999999999993</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="N31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e2-50  &amp;         10.381#            &amp;          8.961 &amp;         10.350 &amp;    \bf{10.359} &amp;          9.203 &amp;         10.098#            &amp;        8.760,1 &amp;       10.325,1 &amp;  \bf{10.330,0} &amp;        9.172,9 &amp;        9.999,8 \\</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="11">
+        <v>9362</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8154</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9336</v>
+      </c>
+      <c r="E32" s="15">
+        <v>9341</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8491</v>
+      </c>
+      <c r="G32" s="5">
+        <v>9175</v>
+      </c>
+      <c r="H32" s="42">
+        <v>7945.2</v>
+      </c>
+      <c r="I32" s="43">
+        <v>9314.6332999999995</v>
+      </c>
+      <c r="J32" s="44">
+        <v>9319.5</v>
+      </c>
+      <c r="K32" s="5">
+        <f>'Diferencas Media'!S32</f>
+        <v>8391.1</v>
+      </c>
+      <c r="L32" s="15">
+        <f>'Diferencas Media'!T32</f>
+        <v>9100.1</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="N32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e3-50  &amp;          9.362#            &amp;          8.154 &amp;          9.336 &amp;     \bf{9.341} &amp;          8.491 &amp;          9.175#            &amp;        7.945,2 &amp;        9.314,6 &amp;   \bf{9.319,5} &amp;        8.391,1 &amp;        9.100,1 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="11">
+        <v>8174</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7139</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8165</v>
+      </c>
+      <c r="E33" s="15">
+        <v>8163</v>
+      </c>
+      <c r="F33" s="5">
+        <v>7487</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8043</v>
+      </c>
+      <c r="H33" s="42">
+        <v>6936.5</v>
+      </c>
+      <c r="I33" s="43">
+        <v>8136.3333000000002</v>
+      </c>
+      <c r="J33" s="44">
+        <v>8139.3333000000002</v>
+      </c>
+      <c r="K33" s="5">
+        <f>'Diferencas Media'!S33</f>
+        <v>7418.9</v>
+      </c>
+      <c r="L33" s="15">
+        <f>'Diferencas Media'!T33</f>
+        <v>7968</v>
+      </c>
+      <c r="M33" s="43"/>
+      <c r="N33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-e4-50  &amp;          8.174#            &amp;          7.139 &amp;     \bf{8.165} &amp;          8.163 &amp;          7.487 &amp;          8.043#            &amp;        6.936,5 &amp;        8.136,3 &amp;   \bf{8.139,3} &amp;        7.418,9 &amp;        7.968,0 \\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8897</v>
+      </c>
+      <c r="C34" s="11">
+        <v>7784</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8879</v>
+      </c>
+      <c r="E34" s="15">
+        <v>8872</v>
+      </c>
+      <c r="F34" s="5">
+        <v>8223</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8714</v>
+      </c>
+      <c r="H34" s="42">
+        <v>7643.7</v>
+      </c>
+      <c r="I34" s="43">
+        <v>8845.8333000000002</v>
+      </c>
+      <c r="J34" s="44">
+        <v>8851.8667000000005</v>
+      </c>
+      <c r="K34" s="5">
+        <f>'Diferencas Media'!S34</f>
+        <v>8151.7</v>
+      </c>
+      <c r="L34" s="15">
+        <f>'Diferencas Media'!T34</f>
+        <v>8660</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="N34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g1-50  &amp;          8.897#            &amp;          7.784 &amp;     \bf{8.879} &amp;          8.872 &amp;          8.223 &amp;          8.714#            &amp;        7.643,7 &amp;        8.845,8 &amp;   \bf{8.851,9} &amp;        8.151,7 &amp;        8.660,0 \\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6553</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5886</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6544</v>
+      </c>
+      <c r="E35" s="15">
+        <v>6546</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6219</v>
+      </c>
+      <c r="G35" s="5">
+        <v>6502</v>
+      </c>
+      <c r="H35" s="42">
+        <v>5742.1666999999998</v>
+      </c>
+      <c r="I35" s="43">
+        <v>6529.4666999999999</v>
+      </c>
+      <c r="J35" s="44">
+        <v>6533.3</v>
+      </c>
+      <c r="K35" s="5">
+        <f>'Diferencas Media'!S35</f>
+        <v>6138.4</v>
+      </c>
+      <c r="L35" s="15">
+        <f>'Diferencas Media'!T35</f>
+        <v>6470.2</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g2-50  &amp;          6.553#            &amp;          5.886 &amp;          6.544 &amp;     \bf{6.546} &amp;          6.219 &amp;          6.502#            &amp;        5.742,2 &amp;        6.529,5 &amp;   \bf{6.533,3} &amp;        6.138,4 &amp;        6.470,2 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11">
+        <v>8501</v>
+      </c>
+      <c r="C36" s="11">
+        <v>7505</v>
+      </c>
+      <c r="D36" s="5">
+        <v>8483</v>
+      </c>
+      <c r="E36" s="15">
+        <v>8484</v>
+      </c>
+      <c r="F36" s="5">
+        <v>7903</v>
+      </c>
+      <c r="G36" s="5">
+        <v>8402</v>
+      </c>
+      <c r="H36" s="42">
+        <v>7379.1</v>
+      </c>
+      <c r="I36" s="43">
+        <v>8457.6</v>
+      </c>
+      <c r="J36" s="44">
+        <v>8455.6</v>
+      </c>
+      <c r="K36" s="5">
+        <f>'Diferencas Media'!S36</f>
+        <v>7849.8</v>
+      </c>
+      <c r="L36" s="15">
+        <f>'Diferencas Media'!T36</f>
+        <v>8326.7999999999993</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g3-50  &amp;          8.501#            &amp;          7.505 &amp;          8.483 &amp;     \bf{8.484} &amp;          7.903 &amp;          8.402#            &amp;        7.379,1 &amp;   \bf{8.457,6} &amp;        8.455,6 &amp;        7.849,8 &amp;        8.326,8 \\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11">
+        <v>6063</v>
+      </c>
+      <c r="C37" s="11">
+        <v>5422</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6058</v>
+      </c>
+      <c r="E37" s="15">
+        <v>6056</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5751</v>
+      </c>
+      <c r="G37" s="5">
+        <v>6030</v>
+      </c>
+      <c r="H37" s="42">
+        <v>5293.9332999999997</v>
+      </c>
+      <c r="I37" s="43">
+        <v>6041.5</v>
+      </c>
+      <c r="J37" s="44">
+        <v>6045.5</v>
+      </c>
+      <c r="K37" s="5">
+        <f>'Diferencas Media'!S37</f>
+        <v>5721.3</v>
+      </c>
+      <c r="L37" s="15">
+        <f>'Diferencas Media'!T37</f>
+        <v>5986.5</v>
+      </c>
+      <c r="M37" s="43"/>
+      <c r="N37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-g4-50  &amp;          6.063#            &amp;          5.422 &amp;     \bf{6.058} &amp;          6.056 &amp;          5.751 &amp;          6.030#            &amp;        5.293,9 &amp;        6.041,5 &amp;   \bf{6.045,5} &amp;        5.721,3 &amp;        5.986,5 \\</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <v>15540</v>
+      </c>
+      <c r="C38" s="11">
+        <v>12743</v>
+      </c>
+      <c r="D38" s="5">
+        <v>15454</v>
+      </c>
+      <c r="E38" s="15">
+        <v>15476</v>
+      </c>
+      <c r="F38" s="5">
+        <v>13287</v>
+      </c>
+      <c r="G38" s="5">
+        <v>14588</v>
+      </c>
+      <c r="H38" s="42">
+        <v>12479.7333</v>
+      </c>
+      <c r="I38" s="43">
+        <v>15362.566699999999</v>
+      </c>
+      <c r="J38" s="44">
+        <v>15378.8667</v>
+      </c>
+      <c r="K38" s="5">
+        <f>'Diferencas Media'!S38</f>
+        <v>13030.8</v>
+      </c>
+      <c r="L38" s="15">
+        <f>'Diferencas Media'!T38</f>
+        <v>14437.7</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="N38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m1-50  &amp;         15.540#            &amp;         12.743 &amp;         15.454 &amp;    \bf{15.476} &amp;         13.287 &amp;         14.588#            &amp;       12.479,7 &amp;       15.362,6 &amp;  \bf{15.378,9} &amp;       13.030,8 &amp;       14.437,7 \\</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>12585</v>
+      </c>
+      <c r="C39" s="11">
+        <v>10461</v>
+      </c>
+      <c r="D39" s="5">
+        <v>12548</v>
+      </c>
+      <c r="E39" s="15">
+        <v>12545</v>
+      </c>
+      <c r="F39" s="5">
+        <v>10873</v>
+      </c>
+      <c r="G39" s="5">
+        <v>11975</v>
+      </c>
+      <c r="H39" s="42">
+        <v>10222.9</v>
+      </c>
+      <c r="I39" s="43">
+        <v>12484.1</v>
+      </c>
+      <c r="J39" s="44">
+        <v>12496.2333</v>
+      </c>
+      <c r="K39" s="5">
+        <f>'Diferencas Media'!S39</f>
+        <v>10776.5</v>
+      </c>
+      <c r="L39" s="15">
+        <f>'Diferencas Media'!T39</f>
+        <v>11883.5</v>
+      </c>
+      <c r="M39" s="43"/>
+      <c r="N39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m2-50  &amp;         12.585#            &amp;         10.461 &amp;    \bf{12.548} &amp;         12.545 &amp;         10.873 &amp;         11.975#            &amp;       10.222,9 &amp;       12.484,1 &amp;  \bf{12.496,2} &amp;       10.776,5 &amp;       11.883,5 \\</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="11">
+        <v>15096</v>
+      </c>
+      <c r="C40" s="11">
+        <v>12309</v>
+      </c>
+      <c r="D40" s="5">
+        <v>14979</v>
+      </c>
+      <c r="E40" s="15">
+        <v>15021</v>
+      </c>
+      <c r="F40" s="5">
+        <v>12969</v>
+      </c>
+      <c r="G40" s="5">
+        <v>14138</v>
+      </c>
+      <c r="H40" s="42">
+        <v>12090.8667</v>
+      </c>
+      <c r="I40" s="43">
+        <v>14920.433300000001</v>
+      </c>
+      <c r="J40" s="44">
+        <v>14949.433300000001</v>
+      </c>
+      <c r="K40" s="5">
+        <f>'Diferencas Media'!S40</f>
+        <v>12853.4</v>
+      </c>
+      <c r="L40" s="15">
+        <f>'Diferencas Media'!T40</f>
+        <v>14036.6</v>
+      </c>
+      <c r="M40" s="43"/>
+      <c r="N40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m3-50  &amp;         15.096#            &amp;         12.309 &amp;         14.979 &amp;    \bf{15.021} &amp;         12.969 &amp;         14.138#            &amp;       12.090,9 &amp;       14.920,4 &amp;  \bf{14.949,4} &amp;       12.853,4 &amp;       14.036,6 \\</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="12">
+        <v>11369</v>
+      </c>
+      <c r="C41" s="12">
+        <v>9392</v>
+      </c>
+      <c r="D41" s="8">
+        <v>11346</v>
+      </c>
+      <c r="E41" s="16">
+        <v>11316</v>
+      </c>
+      <c r="F41" s="8">
+        <v>9970</v>
+      </c>
+      <c r="G41" s="8">
+        <v>10893</v>
+      </c>
+      <c r="H41" s="45">
+        <v>9259.7667000000001</v>
+      </c>
+      <c r="I41" s="46">
+        <v>11286.2667</v>
+      </c>
+      <c r="J41" s="47">
+        <v>11290.033299999999</v>
+      </c>
+      <c r="K41" s="8">
+        <f>'Diferencas Media'!S41</f>
+        <v>9923.2000000000007</v>
+      </c>
+      <c r="L41" s="16">
+        <f>'Diferencas Media'!T41</f>
+        <v>10790.7</v>
+      </c>
+      <c r="M41" s="43"/>
+      <c r="N41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>nrp-m4-50  &amp;         11.369#            &amp;          9.392 &amp;    \bf{11.346} &amp;         11.316 &amp;          9.970 &amp;         10.893#            &amp;        9.259,8 &amp;       11.286,3 &amp;  \bf{11.290,0} &amp;        9.923,2 &amp;       10.790,7 \\</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/worksheets/Resultados.xlsx
+++ b/scripts/worksheets/Resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="1540" windowWidth="31880" windowHeight="17640" tabRatio="908" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19660" tabRatio="908"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencas Maximo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>instance</t>
   </si>
@@ -230,18 +230,20 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>OPT &gt;= BMA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -821,21 +823,21 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="359">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1488,9 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -1498,19 +1502,19 @@
     <col min="2" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.5" style="1" customWidth="1"/>
-    <col min="11" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="23" width="11.5" customWidth="1"/>
+    <col min="11" max="16" width="11.5" style="1" customWidth="1"/>
+    <col min="17" max="24" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1550,29 +1554,32 @@
       <c r="O2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1587,62 +1594,66 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="b">
-        <f t="shared" ref="F3:F41" si="0">AND($D3&gt;=MAX($B3,$C3,$U3,$V3))</f>
+        <f t="shared" ref="F3:F41" si="0">AND($D3&gt;=MAX($B3,$C3,$V3,$W3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="5" t="b">
-        <f t="shared" ref="G3:G41" si="1">AND($C3&gt;=MAX($B3,$D3,$U3,$V3))</f>
+        <f t="shared" ref="G3:G41" si="1">AND($C3&gt;=MAX($B3,$D3,$V3,$W3))</f>
         <v>1</v>
       </c>
       <c r="H3" s="5" t="b">
-        <f t="shared" ref="H3:H41" si="2">AND($B3&gt;=MAX($C3,$D3,$U3,$V3))</f>
+        <f t="shared" ref="H3:H41" si="2">AND($B3&gt;=MAX($C3,$D3,$V3,$W3))</f>
         <v>0</v>
       </c>
       <c r="I3" s="5" t="b">
-        <f t="shared" ref="I3:I41" si="3">AND($U3&gt;=MAX($B3,$C3,$D3,$V3))</f>
+        <f t="shared" ref="I3:I41" si="3">AND($V3&gt;=MAX($B3,$C3,$D3,$W3))</f>
         <v>0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <f t="shared" ref="J3:J41" si="4">AND($V3&gt;=MAX($B3,$C3,$D3,$U3))</f>
+        <f t="shared" ref="J3:J41" si="4">AND($W3&gt;=MAX($B3,$C3,$D3,$V3))</f>
         <v>0</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="29">
-        <f>(D3-V3)/D3</f>
+        <f>(D3-W3)/D3</f>
         <v>2.4916943521594683E-3</v>
       </c>
       <c r="M3" s="29">
-        <f t="shared" ref="M3:M41" si="5">(C3-V3)/C3</f>
+        <f t="shared" ref="M3:M41" si="5">(C3-W3)/C3</f>
         <v>2.4916943521594683E-3</v>
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="29">
-        <f t="shared" ref="O3:O41" si="6">(W3-D3)/W3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+        <f t="shared" ref="O3:P41" si="6">(X3-D3)/X3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <f>(X3-W3)/X3</f>
+        <v>2.4916943521594683E-3</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="21">
+      <c r="S3" s="21">
         <v>1180</v>
-      </c>
-      <c r="S3" s="22">
-        <v>1204</v>
       </c>
       <c r="T3" s="22">
         <v>1204</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="22">
+        <v>1204</v>
+      </c>
+      <c r="V3" s="2">
         <v>1187</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>1201</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>1204</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1689,7 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="29">
-        <f t="shared" ref="L4:L41" si="7">(D4-V4)/D4</f>
+        <f t="shared" ref="L4:L41" si="7">(D4-W4)/D4</f>
         <v>3.0762920426579164E-2</v>
       </c>
       <c r="M4" s="29">
@@ -1690,29 +1701,33 @@
         <f t="shared" si="6"/>
         <v>1.8913480885311872E-2</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="29">
+        <f t="shared" ref="P4:P41" si="8">(X4-W4)/X4</f>
+        <v>4.909456740442656E-2</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="23">
+      <c r="S4" s="23">
         <v>4414</v>
       </c>
-      <c r="S4" s="24">
+      <c r="T4" s="24">
         <v>4873</v>
       </c>
-      <c r="T4" s="24">
+      <c r="U4" s="24">
         <v>4830</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>2794</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>4726</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>4970</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1760,29 +1775,33 @@
         <f t="shared" si="6"/>
         <v>9.348290598290598E-3</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="29">
+        <f t="shared" si="8"/>
+        <v>4.874465811965812E-2</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="23">
+      <c r="S5" s="23">
         <v>5878</v>
       </c>
-      <c r="S5" s="24">
+      <c r="T5" s="24">
         <v>7409</v>
       </c>
-      <c r="T5" s="24">
+      <c r="U5" s="24">
         <v>7401</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>5851</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>7123</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>7488</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1830,29 +1849,33 @@
         <f t="shared" si="6"/>
         <v>1.2815715622076708E-2</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="29">
+        <f t="shared" si="8"/>
+        <v>8.1571562207670714E-2</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="23">
+      <c r="S6" s="23">
         <v>8057</v>
       </c>
-      <c r="S6" s="24">
+      <c r="T6" s="24">
         <v>10450</v>
       </c>
-      <c r="T6" s="24">
+      <c r="U6" s="24">
         <v>10470</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>6675</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>9818</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>10690</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1900,29 +1923,33 @@
         <f t="shared" si="6"/>
         <v>2.5823878984332794E-2</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="P7" s="29">
+        <f t="shared" si="8"/>
+        <v>7.0772555375472723E-2</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="23">
+      <c r="S7" s="23">
         <v>16090</v>
       </c>
-      <c r="S7" s="24">
+      <c r="T7" s="24">
         <v>17381</v>
       </c>
-      <c r="T7" s="24">
+      <c r="U7" s="24">
         <v>17854</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>10689</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>17200</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>18510</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1970,29 +1997,33 @@
         <f t="shared" si="6"/>
         <v>2.1739130434782609E-3</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="P8" s="29">
+        <f t="shared" si="8"/>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="23">
+      <c r="S8" s="23">
         <v>1764</v>
-      </c>
-      <c r="S8" s="24">
-        <v>1836</v>
       </c>
       <c r="T8" s="24">
         <v>1836</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="24">
+        <v>1836</v>
+      </c>
+      <c r="V8" s="5">
         <v>1820</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>1824</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>1840</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2040,29 +2071,33 @@
         <f t="shared" si="6"/>
         <v>3.0130192188468692E-2</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="P9" s="29">
+        <f t="shared" si="8"/>
+        <v>6.1872287662740236E-2</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="23">
+      <c r="S9" s="23">
         <v>7533</v>
       </c>
-      <c r="S9" s="24">
+      <c r="T9" s="24">
         <v>7778</v>
       </c>
-      <c r="T9" s="24">
+      <c r="U9" s="24">
         <v>7842</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>5363</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>7566</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <v>8065</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -2110,29 +2145,33 @@
         <f t="shared" si="6"/>
         <v>2.867640469576127E-3</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="P10" s="29">
+        <f t="shared" si="8"/>
+        <v>2.3478806344654539E-2</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="23">
+      <c r="S10" s="23">
         <v>9729</v>
       </c>
-      <c r="S10" s="24">
+      <c r="T10" s="24">
         <v>11083</v>
       </c>
-      <c r="T10" s="24">
+      <c r="U10" s="24">
         <v>11100</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>9639</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>10897</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>11159</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2180,29 +2219,33 @@
         <f t="shared" si="6"/>
         <v>8.0700656865811699E-3</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="P11" s="29">
+        <f t="shared" si="8"/>
+        <v>6.0056302783859872E-2</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="23">
+      <c r="S11" s="23">
         <v>13459</v>
       </c>
-      <c r="S11" s="24">
+      <c r="T11" s="24">
         <v>15775</v>
       </c>
-      <c r="T11" s="24">
+      <c r="U11" s="24">
         <v>15839</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>12781</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>15025</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <v>15985</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2250,29 +2293,33 @@
         <f t="shared" si="6"/>
         <v>4.1698716651147726E-3</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="P12" s="29">
+        <f t="shared" si="8"/>
+        <v>1.8663212015707868E-2</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="23">
+      <c r="S12" s="23">
         <v>22928</v>
       </c>
-      <c r="S12" s="24">
+      <c r="T12" s="24">
         <v>24482</v>
       </c>
-      <c r="T12" s="24">
+      <c r="U12" s="24">
         <v>24589</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>18950</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>24240</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="6">
         <v>24701</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -2320,29 +2367,33 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="P13" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="23">
+      <c r="S13" s="23">
         <v>2477</v>
-      </c>
-      <c r="S13" s="24">
-        <v>2507</v>
       </c>
       <c r="T13" s="24">
         <v>2507</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="24">
         <v>2507</v>
       </c>
       <c r="V13" s="5">
         <v>2507</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>2507</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="6">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2390,29 +2441,33 @@
         <f t="shared" si="6"/>
         <v>1.166489925768823E-2</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="P14" s="29">
+        <f t="shared" si="8"/>
+        <v>2.9073877695298692E-2</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="23">
+      <c r="S14" s="23">
         <v>10892</v>
       </c>
-      <c r="S14" s="24">
+      <c r="T14" s="24">
         <v>11187</v>
       </c>
-      <c r="T14" s="24">
+      <c r="U14" s="24">
         <v>11202</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>9018</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>10987</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="6">
         <v>11316</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -2460,29 +2515,33 @@
         <f t="shared" si="6"/>
         <v>2.8176951253874329E-4</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="P15" s="29">
+        <f t="shared" si="8"/>
+        <v>1.1270780501549732E-3</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="23">
+      <c r="S15" s="23">
         <v>13859</v>
       </c>
-      <c r="S15" s="24">
+      <c r="T15" s="24">
         <v>14178</v>
       </c>
-      <c r="T15" s="24">
+      <c r="U15" s="24">
         <v>14195</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <v>12454</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>14180</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <v>14196</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2530,29 +2589,33 @@
         <f t="shared" si="6"/>
         <v>6.2162291397695212E-4</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="P16" s="29">
+        <f t="shared" si="8"/>
+        <v>2.8690288337397791E-3</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="23">
+      <c r="S16" s="23">
         <v>20035</v>
       </c>
-      <c r="S16" s="24">
+      <c r="T16" s="24">
         <v>20873</v>
       </c>
-      <c r="T16" s="24">
+      <c r="U16" s="24">
         <v>20892</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>17327</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>20853</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="6">
         <v>20913</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2600,29 +2663,33 @@
         <f t="shared" si="6"/>
         <v>1.383508577753182E-4</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="P17" s="29">
+        <f t="shared" si="8"/>
+        <v>1.0376314333148866E-4</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="23">
+      <c r="S17" s="23">
         <v>28735</v>
       </c>
-      <c r="S17" s="24">
+      <c r="T17" s="24">
         <v>28883</v>
       </c>
-      <c r="T17" s="24">
+      <c r="U17" s="24">
         <v>28904</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <v>22174</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>28909</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="6">
         <v>28912</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2670,29 +2737,33 @@
         <f t="shared" si="6"/>
         <v>4.293471397903776E-3</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="P18" s="29">
+        <f t="shared" si="8"/>
+        <v>4.3818663972723826E-2</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="23">
+      <c r="S18" s="23">
         <v>6091</v>
       </c>
-      <c r="S18" s="24">
+      <c r="T18" s="24">
         <v>7867</v>
       </c>
-      <c r="T18" s="24">
+      <c r="U18" s="24">
         <v>7875</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="5">
         <v>6662</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <v>7572</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="6">
         <v>7919</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -2740,29 +2811,33 @@
         <f t="shared" si="6"/>
         <v>3.7604082728982004E-3</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="29">
+        <f t="shared" si="8"/>
+        <v>3.7201181842600052E-2</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="23">
+      <c r="S19" s="23">
         <v>5736</v>
-      </c>
-      <c r="S19" s="24">
-        <v>7417</v>
       </c>
       <c r="T19" s="24">
         <v>7417</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="24">
+        <v>7417</v>
+      </c>
+      <c r="V19" s="5">
         <v>6275</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <v>7169</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="6">
         <v>7446</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2810,29 +2885,33 @@
         <f t="shared" si="6"/>
         <v>1.6501650165016502E-3</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="P20" s="29">
+        <f t="shared" si="8"/>
+        <v>3.0753075307530752E-2</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="23">
+      <c r="S20" s="23">
         <v>5188</v>
       </c>
-      <c r="S20" s="24">
+      <c r="T20" s="24">
         <v>6643</v>
       </c>
-      <c r="T20" s="24">
+      <c r="U20" s="24">
         <v>6636</v>
       </c>
-      <c r="U20" s="5">
+      <c r="V20" s="5">
         <v>5795</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <v>6461</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <v>6666</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2880,29 +2959,33 @@
         <f t="shared" si="6"/>
         <v>1.6465795280937022E-2</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="P21" s="29">
+        <f t="shared" si="8"/>
+        <v>3.3780342895942964E-2</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="23">
+      <c r="S21" s="23">
         <v>4590</v>
       </c>
-      <c r="S21" s="24">
+      <c r="T21" s="24">
         <v>5789</v>
       </c>
-      <c r="T21" s="24">
+      <c r="U21" s="24">
         <v>5787</v>
       </c>
-      <c r="U21" s="5">
+      <c r="V21" s="5">
         <v>5065</v>
       </c>
-      <c r="V21" s="5">
+      <c r="W21" s="5">
         <v>5692</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="6">
         <v>5891</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2950,29 +3033,33 @@
         <f t="shared" si="6"/>
         <v>2.7732463295269166E-3</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="P22" s="29">
+        <f t="shared" si="8"/>
+        <v>3.1321370309951059E-2</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="23">
+      <c r="S22" s="23">
         <v>4955</v>
       </c>
-      <c r="S22" s="24">
+      <c r="T22" s="24">
         <v>6099</v>
       </c>
-      <c r="T22" s="24">
+      <c r="U22" s="24">
         <v>6103</v>
       </c>
-      <c r="U22" s="5">
+      <c r="V22" s="5">
         <v>5494</v>
       </c>
-      <c r="V22" s="5">
+      <c r="W22" s="5">
         <v>5938</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="6">
         <v>6130</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -3020,29 +3107,33 @@
         <f t="shared" si="6"/>
         <v>1.7467248908296944E-3</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="P23" s="29">
+        <f t="shared" si="8"/>
+        <v>1.1790393013100437E-2</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="23">
+      <c r="S23" s="23">
         <v>3759</v>
       </c>
-      <c r="S23" s="24">
+      <c r="T23" s="24">
         <v>4574</v>
       </c>
-      <c r="T23" s="24">
+      <c r="U23" s="24">
         <v>4568</v>
       </c>
-      <c r="U23" s="5">
+      <c r="V23" s="5">
         <v>4256</v>
       </c>
-      <c r="V23" s="5">
+      <c r="W23" s="5">
         <v>4526</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="6">
         <v>4580</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -3090,29 +3181,33 @@
         <f t="shared" si="6"/>
         <v>3.2029669588671613E-3</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="P24" s="29">
+        <f t="shared" si="8"/>
+        <v>2.191503708698584E-2</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="23">
+      <c r="S24" s="23">
         <v>4834</v>
       </c>
-      <c r="S24" s="24">
+      <c r="T24" s="24">
         <v>5905</v>
       </c>
-      <c r="T24" s="24">
+      <c r="U24" s="24">
         <v>5914</v>
       </c>
-      <c r="U24" s="5">
+      <c r="V24" s="5">
         <v>5351</v>
       </c>
-      <c r="V24" s="5">
+      <c r="W24" s="5">
         <v>5802</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="6">
         <v>5932</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -3160,29 +3255,33 @@
         <f t="shared" si="6"/>
         <v>1.896633475580844E-3</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="P25" s="29">
+        <f t="shared" si="8"/>
+        <v>6.6382171645329542E-3</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="23">
+      <c r="S25" s="23">
         <v>3483</v>
       </c>
-      <c r="S25" s="24">
+      <c r="T25" s="24">
         <v>4214</v>
       </c>
-      <c r="T25" s="24">
+      <c r="U25" s="24">
         <v>4216</v>
       </c>
-      <c r="U25" s="5">
+      <c r="V25" s="5">
         <v>3951</v>
       </c>
-      <c r="V25" s="5">
+      <c r="W25" s="5">
         <v>4190</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="6">
         <v>4218</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -3230,29 +3329,33 @@
         <f t="shared" si="6"/>
         <v>6.3138347260909937E-3</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="P26" s="29">
+        <f t="shared" si="8"/>
+        <v>7.0752089136490254E-2</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R26" s="23">
+      <c r="S26" s="23">
         <v>7749</v>
       </c>
-      <c r="S26" s="24">
+      <c r="T26" s="24">
         <v>10664</v>
       </c>
-      <c r="T26" s="24">
+      <c r="U26" s="24">
         <v>10642</v>
       </c>
-      <c r="U26" s="5">
+      <c r="V26" s="5">
         <v>8268</v>
       </c>
-      <c r="V26" s="5">
+      <c r="W26" s="5">
         <v>10008</v>
       </c>
-      <c r="W26" s="6">
+      <c r="X26" s="6">
         <v>10770</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -3300,29 +3403,33 @@
         <f t="shared" si="6"/>
         <v>5.6276559090387042E-3</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="P27" s="29">
+        <f t="shared" si="8"/>
+        <v>4.9959802457792579E-2</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="23">
+      <c r="S27" s="23">
         <v>6403</v>
       </c>
-      <c r="S27" s="24">
+      <c r="T27" s="24">
         <v>8643</v>
       </c>
-      <c r="T27" s="24">
+      <c r="U27" s="24">
         <v>8657</v>
       </c>
-      <c r="U27" s="5">
+      <c r="V27" s="5">
         <v>6928</v>
       </c>
-      <c r="V27" s="5">
+      <c r="W27" s="5">
         <v>8272</v>
       </c>
-      <c r="W27" s="6">
+      <c r="X27" s="6">
         <v>8707</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -3370,29 +3477,33 @@
         <f t="shared" si="6"/>
         <v>1.1452218265806948E-2</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="P28" s="29">
+        <f t="shared" si="8"/>
+        <v>8.0069290732364545E-2</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="23">
+      <c r="S28" s="23">
         <v>7474</v>
       </c>
-      <c r="S28" s="24">
+      <c r="T28" s="24">
         <v>10260</v>
       </c>
-      <c r="T28" s="24">
+      <c r="U28" s="24">
         <v>10252</v>
       </c>
-      <c r="U28" s="5">
+      <c r="V28" s="5">
         <v>8091</v>
       </c>
-      <c r="V28" s="5">
+      <c r="W28" s="5">
         <v>9559</v>
       </c>
-      <c r="W28" s="6">
+      <c r="X28" s="6">
         <v>10391</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3440,29 +3551,33 @@
         <f t="shared" si="6"/>
         <v>4.3718657580043719E-3</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="P29" s="29">
+        <f t="shared" si="8"/>
+        <v>4.7447601903047448E-2</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="23">
+      <c r="S29" s="23">
         <v>5722</v>
       </c>
-      <c r="S29" s="24">
+      <c r="T29" s="24">
         <v>7716</v>
       </c>
-      <c r="T29" s="24">
+      <c r="U29" s="24">
         <v>7731</v>
       </c>
-      <c r="U29" s="5">
+      <c r="V29" s="5">
         <v>6413</v>
       </c>
-      <c r="V29" s="5">
+      <c r="W29" s="5">
         <v>7408</v>
       </c>
-      <c r="W29" s="6">
+      <c r="X29" s="6">
         <v>7777</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -3510,29 +3625,33 @@
         <f t="shared" si="6"/>
         <v>2.7100271002710027E-3</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="P30" s="29">
+        <f t="shared" si="8"/>
+        <v>3.6675700090334239E-2</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="23">
+      <c r="S30" s="23">
         <v>9559</v>
       </c>
-      <c r="S30" s="24">
+      <c r="T30" s="24">
         <v>11024</v>
       </c>
-      <c r="T30" s="24">
+      <c r="U30" s="24">
         <v>11034</v>
       </c>
-      <c r="U30" s="5">
+      <c r="V30" s="5">
         <v>9801</v>
       </c>
-      <c r="V30" s="5">
+      <c r="W30" s="5">
         <v>10664</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="6">
         <v>11070</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -3580,29 +3699,33 @@
         <f t="shared" si="6"/>
         <v>2.1192563336865427E-3</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="P31" s="29">
+        <f t="shared" si="8"/>
+        <v>2.726134283787689E-2</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R31" s="23">
+      <c r="S31" s="23">
         <v>8980</v>
       </c>
-      <c r="S31" s="24">
+      <c r="T31" s="24">
         <v>10348</v>
       </c>
-      <c r="T31" s="24">
+      <c r="U31" s="24">
         <v>10354</v>
       </c>
-      <c r="U31" s="5">
+      <c r="V31" s="5">
         <v>9203</v>
       </c>
-      <c r="V31" s="5">
+      <c r="W31" s="5">
         <v>10098</v>
       </c>
-      <c r="W31" s="6">
+      <c r="X31" s="6">
         <v>10381</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -3650,29 +3773,33 @@
         <f t="shared" si="6"/>
         <v>2.2431104464857936E-3</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="P32" s="29">
+        <f t="shared" si="8"/>
+        <v>1.9974364452040164E-2</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="23">
+      <c r="S32" s="23">
         <v>8111</v>
       </c>
-      <c r="S32" s="24">
+      <c r="T32" s="24">
         <v>9337</v>
       </c>
-      <c r="T32" s="24">
+      <c r="U32" s="24">
         <v>9339</v>
       </c>
-      <c r="U32" s="5">
+      <c r="V32" s="5">
         <v>8491</v>
       </c>
-      <c r="V32" s="5">
+      <c r="W32" s="5">
         <v>9175</v>
       </c>
-      <c r="W32" s="6">
+      <c r="X32" s="6">
         <v>9362</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -3720,29 +3847,33 @@
         <f t="shared" si="6"/>
         <v>1.3457303645705897E-3</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="P33" s="29">
+        <f t="shared" si="8"/>
+        <v>1.6026425250795204E-2</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="23">
+      <c r="S33" s="23">
         <v>7134</v>
       </c>
-      <c r="S33" s="24">
+      <c r="T33" s="24">
         <v>8159</v>
       </c>
-      <c r="T33" s="24">
+      <c r="U33" s="24">
         <v>8163</v>
       </c>
-      <c r="U33" s="5">
+      <c r="V33" s="5">
         <v>7487</v>
       </c>
-      <c r="V33" s="5">
+      <c r="W33" s="5">
         <v>8043</v>
       </c>
-      <c r="W33" s="6">
+      <c r="X33" s="6">
         <v>8174</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -3790,29 +3921,33 @@
         <f t="shared" si="6"/>
         <v>2.8099359334607171E-3</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="P34" s="29">
+        <f t="shared" si="8"/>
+        <v>2.0568731032932448E-2</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R34" s="23">
+      <c r="S34" s="23">
         <v>7813</v>
       </c>
-      <c r="S34" s="24">
+      <c r="T34" s="24">
         <v>8867</v>
       </c>
-      <c r="T34" s="24">
+      <c r="U34" s="24">
         <v>8880</v>
       </c>
-      <c r="U34" s="5">
+      <c r="V34" s="5">
         <v>8223</v>
       </c>
-      <c r="V34" s="5">
+      <c r="W34" s="5">
         <v>8714</v>
       </c>
-      <c r="W34" s="6">
+      <c r="X34" s="6">
         <v>8897</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -3860,29 +3995,33 @@
         <f t="shared" si="6"/>
         <v>1.0682130321989928E-3</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="P35" s="29">
+        <f t="shared" si="8"/>
+        <v>7.7826949488783766E-3</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R35" s="23">
+      <c r="S35" s="23">
         <v>5884</v>
       </c>
-      <c r="S35" s="24">
+      <c r="T35" s="24">
         <v>6544</v>
       </c>
-      <c r="T35" s="24">
+      <c r="U35" s="24">
         <v>6550</v>
       </c>
-      <c r="U35" s="5">
+      <c r="V35" s="5">
         <v>6219</v>
       </c>
-      <c r="V35" s="5">
+      <c r="W35" s="5">
         <v>6502</v>
       </c>
-      <c r="W35" s="6">
+      <c r="X35" s="6">
         <v>6553</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -3930,29 +4069,33 @@
         <f t="shared" si="6"/>
         <v>1.9997647335607575E-3</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="P36" s="29">
+        <f t="shared" si="8"/>
+        <v>1.1645688742500881E-2</v>
+      </c>
+      <c r="R36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R36" s="23">
+      <c r="S36" s="23">
         <v>7537</v>
       </c>
-      <c r="S36" s="24">
+      <c r="T36" s="24">
         <v>8492</v>
       </c>
-      <c r="T36" s="24">
+      <c r="U36" s="24">
         <v>8486</v>
       </c>
-      <c r="U36" s="5">
+      <c r="V36" s="5">
         <v>7903</v>
       </c>
-      <c r="V36" s="5">
+      <c r="W36" s="5">
         <v>8402</v>
       </c>
-      <c r="W36" s="6">
+      <c r="X36" s="6">
         <v>8501</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
@@ -4000,29 +4143,33 @@
         <f t="shared" si="6"/>
         <v>1.1545439551377205E-3</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="P37" s="29">
+        <f t="shared" si="8"/>
+        <v>5.4428500742206825E-3</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R37" s="23">
+      <c r="S37" s="23">
         <v>5401</v>
       </c>
-      <c r="S37" s="24">
+      <c r="T37" s="24">
         <v>6055</v>
       </c>
-      <c r="T37" s="24">
+      <c r="U37" s="24">
         <v>6057</v>
       </c>
-      <c r="U37" s="5">
+      <c r="V37" s="5">
         <v>5751</v>
       </c>
-      <c r="V37" s="5">
+      <c r="W37" s="5">
         <v>6030</v>
       </c>
-      <c r="W37" s="6">
+      <c r="X37" s="6">
         <v>6063</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -4070,29 +4217,33 @@
         <f t="shared" si="6"/>
         <v>4.1184041184041181E-3</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="P38" s="29">
+        <f t="shared" si="8"/>
+        <v>6.126126126126126E-2</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="23">
+      <c r="S38" s="23">
         <v>12647</v>
       </c>
-      <c r="S38" s="24">
+      <c r="T38" s="24">
         <v>15454</v>
       </c>
-      <c r="T38" s="24">
+      <c r="U38" s="24">
         <v>15469</v>
       </c>
-      <c r="U38" s="5">
+      <c r="V38" s="5">
         <v>13287</v>
       </c>
-      <c r="V38" s="5">
+      <c r="W38" s="5">
         <v>14588</v>
       </c>
-      <c r="W38" s="6">
+      <c r="X38" s="6">
         <v>15540</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -4140,29 +4291,33 @@
         <f t="shared" si="6"/>
         <v>3.1783869686134287E-3</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="P39" s="29">
+        <f t="shared" si="8"/>
+        <v>4.8470401271354789E-2</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="23">
+      <c r="S39" s="23">
         <v>10436</v>
       </c>
-      <c r="S39" s="24">
+      <c r="T39" s="24">
         <v>12511</v>
       </c>
-      <c r="T39" s="24">
+      <c r="U39" s="24">
         <v>12539</v>
       </c>
-      <c r="U39" s="5">
+      <c r="V39" s="5">
         <v>10873</v>
       </c>
-      <c r="V39" s="5">
+      <c r="W39" s="5">
         <v>11975</v>
       </c>
-      <c r="W39" s="6">
+      <c r="X39" s="6">
         <v>12585</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -4210,29 +4365,33 @@
         <f t="shared" si="6"/>
         <v>4.9682034976152624E-3</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="P40" s="29">
+        <f t="shared" si="8"/>
+        <v>6.3460519342872279E-2</v>
+      </c>
+      <c r="R40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="23">
+      <c r="S40" s="23">
         <v>12390</v>
       </c>
-      <c r="S40" s="24">
+      <c r="T40" s="24">
         <v>15021</v>
       </c>
-      <c r="T40" s="24">
+      <c r="U40" s="24">
         <v>15019</v>
       </c>
-      <c r="U40" s="5">
+      <c r="V40" s="5">
         <v>12969</v>
       </c>
-      <c r="V40" s="5">
+      <c r="W40" s="5">
         <v>14138</v>
       </c>
-      <c r="W40" s="6">
+      <c r="X40" s="6">
         <v>15096</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -4280,29 +4439,33 @@
         <f t="shared" si="6"/>
         <v>4.6617996305743691E-3</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="P41" s="31">
+        <f t="shared" si="8"/>
+        <v>4.1868238191573579E-2</v>
+      </c>
+      <c r="R41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="25">
+      <c r="S41" s="25">
         <v>9367</v>
       </c>
-      <c r="S41" s="26">
+      <c r="T41" s="26">
         <v>11330</v>
       </c>
-      <c r="T41" s="26">
+      <c r="U41" s="26">
         <v>11338</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <v>9970</v>
       </c>
-      <c r="V41" s="8">
+      <c r="W41" s="8">
         <v>10893</v>
       </c>
-      <c r="W41" s="9">
+      <c r="X41" s="9">
         <v>11369</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="F45" s="20" t="s">
         <v>49</v>
       </c>
@@ -4319,7 +4482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="E46"/>
       <c r="F46" s="18">
         <f>COUNTIF(F3:F41,"="&amp;TRUE)</f>
@@ -4334,11 +4497,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" ref="I46:J46" si="8">COUNTIF(I3:I41,"="&amp;TRUE)</f>
+        <f t="shared" ref="I46:J46" si="9">COUNTIF(I3:I41,"="&amp;TRUE)</f>
         <v>1</v>
       </c>
       <c r="J46" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K46" s="18"/>
@@ -4352,8 +4515,9 @@
       </c>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="L47" s="18">
         <f>COUNTIF(L3:L41,"&lt;0")</f>
         <v>1</v>
@@ -4364,8 +4528,9 @@
       </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="L48" s="27">
         <f>AVERAGE(L3:L41)</f>
         <v>2.7433726640115907E-2</v>
@@ -4379,24 +4544,37 @@
         <f>AVERAGE(O3:O41)</f>
         <v>5.7167193354301475E-3</v>
       </c>
-    </row>
-    <row r="49" spans="15:15">
+      <c r="P48" s="30">
+        <f>AVERAGE(P3:P41)</f>
+        <v>3.2935905884166457E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16">
       <c r="O49" s="1">
         <f>COUNTIF(O3:O41,"&lt;=0,01")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="15:15">
+      <c r="P49" s="1">
+        <f>COUNTIF(P3:P41,"&lt;=0,01")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16">
       <c r="O50" s="30">
         <f>MAX(O3:O41)</f>
         <v>3.0130192188468692E-2</v>
       </c>
-    </row>
-    <row r="52" spans="15:15">
+      <c r="P50" s="30">
+        <f>MAX(P3:P41)</f>
+        <v>8.1571562207670714E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16">
       <c r="O52" s="30">
-        <f>(4.1%-O48)/4.1%</f>
-        <v>0.86056782108706942</v>
-      </c>
+        <f>(P48-O48)/P48</f>
+        <v>0.82642896310380842</v>
+      </c>
+      <c r="P52" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A2:C154">
@@ -4416,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6970,7 +7148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -7030,7 +7210,7 @@
       <c r="F2" s="36">
         <v>0.94</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="47">
         <v>0.51</v>
       </c>
       <c r="I2" t="b">
@@ -7071,7 +7251,7 @@
       <c r="F3" s="36">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="47">
         <v>0.66</v>
       </c>
       <c r="I3" t="b">
@@ -7112,7 +7292,7 @@
       <c r="F4" s="36">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="47">
         <v>0.72</v>
       </c>
       <c r="I4" t="b">
@@ -7153,7 +7333,7 @@
       <c r="F5" s="36">
         <v>2.3E-2</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="47">
         <v>0.67</v>
       </c>
       <c r="I5" t="b">
@@ -7194,7 +7374,7 @@
       <c r="F6" s="36">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="47">
         <v>0.9</v>
       </c>
       <c r="I6" t="b">
@@ -7235,7 +7415,7 @@
       <c r="F7" s="36">
         <v>0.65</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="47">
         <v>0.53</v>
       </c>
       <c r="I7" t="b">
@@ -7276,7 +7456,7 @@
       <c r="F8" s="36">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="47">
         <v>0.67</v>
       </c>
       <c r="I8" t="b">
@@ -7317,7 +7497,7 @@
       <c r="F9" s="36">
         <v>3.5E-4</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="47">
         <v>0.77</v>
       </c>
       <c r="I9" t="b">
@@ -7358,7 +7538,7 @@
       <c r="F10" s="36">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="47">
         <v>0.63</v>
       </c>
       <c r="I10" t="b">
@@ -7399,7 +7579,7 @@
       <c r="F11" s="36">
         <v>5.8E-5</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="47">
         <v>0.8</v>
       </c>
       <c r="I11" t="b">
@@ -7440,7 +7620,7 @@
       <c r="F12" s="36">
         <v>0.67</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="47">
         <v>0.48</v>
       </c>
       <c r="I12" t="b">
@@ -7481,7 +7661,7 @@
       <c r="F13" s="36">
         <v>0.15</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="47">
         <v>0.61</v>
       </c>
       <c r="I13" t="b">
@@ -7522,7 +7702,7 @@
       <c r="F14" s="36">
         <v>3.9999999999999998E-11</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="47">
         <v>1</v>
       </c>
       <c r="I14" t="b">
@@ -7563,7 +7743,7 @@
       <c r="F15" s="36">
         <v>3.8000000000000001E-9</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="47">
         <v>0.94</v>
       </c>
       <c r="I15" t="b">
@@ -7604,7 +7784,7 @@
       <c r="F16" s="36">
         <v>5.1999999999999996E-10</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="47">
         <v>0.97</v>
       </c>
       <c r="I16" t="b">
@@ -7645,7 +7825,7 @@
       <c r="F17" s="36">
         <v>0.82</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="47">
         <v>0.52</v>
       </c>
       <c r="I17" t="b">
@@ -7686,7 +7866,7 @@
       <c r="F18" s="36">
         <v>0.26</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="47">
         <v>0.57999999999999996</v>
       </c>
       <c r="I18" t="b">
@@ -7727,7 +7907,7 @@
       <c r="F19" s="36">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="47">
         <v>0.63</v>
       </c>
       <c r="I19" t="b">
@@ -7768,7 +7948,7 @@
       <c r="F20" s="36">
         <v>0.82</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="47">
         <v>0.52</v>
       </c>
       <c r="I20" t="b">
@@ -7809,7 +7989,7 @@
       <c r="F21" s="36">
         <v>0.25</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="47">
         <v>0.59</v>
       </c>
       <c r="I21" t="b">
@@ -7850,7 +8030,7 @@
       <c r="F22" s="36">
         <v>0.17</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="47">
         <v>0.6</v>
       </c>
       <c r="I22" t="b">
@@ -7891,7 +8071,7 @@
       <c r="F23" s="36">
         <v>0.81</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="47">
         <v>0.52</v>
       </c>
       <c r="I23" t="b">
@@ -7932,7 +8112,7 @@
       <c r="F24" s="36">
         <v>0.97</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="47">
         <v>0.5</v>
       </c>
       <c r="I24" t="b">
@@ -7973,7 +8153,7 @@
       <c r="F25" s="36">
         <v>0.25</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="47">
         <v>0.59</v>
       </c>
       <c r="I25" t="b">
@@ -8014,7 +8194,7 @@
       <c r="F26" s="36">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="47">
         <v>0.57999999999999996</v>
       </c>
       <c r="I26" t="b">
@@ -8055,7 +8235,7 @@
       <c r="F27" s="36">
         <v>0.85</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="47">
         <v>0.49</v>
       </c>
       <c r="I27" t="b">
@@ -8096,7 +8276,7 @@
       <c r="F28" s="36">
         <v>0.13</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="47">
         <v>0.62</v>
       </c>
       <c r="I28" t="b">
@@ -8137,7 +8317,7 @@
       <c r="F29" s="36">
         <v>0.12</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="47">
         <v>0.62</v>
       </c>
       <c r="I29" t="b">
@@ -8178,7 +8358,7 @@
       <c r="F30" s="36">
         <v>0.26</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="47">
         <v>0.57999999999999996</v>
       </c>
       <c r="I30" t="b">
@@ -8219,7 +8399,7 @@
       <c r="F31" s="36">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="47">
         <v>0.64</v>
       </c>
       <c r="I31" t="b">
@@ -8260,7 +8440,7 @@
       <c r="F32" s="36">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="47">
         <v>0.57999999999999996</v>
       </c>
       <c r="I32" t="b">
@@ -8301,7 +8481,7 @@
       <c r="F33" s="36">
         <v>0.11</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="47">
         <v>0.62</v>
       </c>
       <c r="I33" t="b">
@@ -8342,7 +8522,7 @@
       <c r="F34" s="36">
         <v>0.23</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="47">
         <v>0.59</v>
       </c>
       <c r="I34" t="b">
@@ -8383,7 +8563,7 @@
       <c r="F35" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="47">
         <v>0.46</v>
       </c>
       <c r="I35" t="b">
@@ -8424,7 +8604,7 @@
       <c r="F36" s="36">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="47">
         <v>0.63</v>
       </c>
       <c r="I36" t="b">
@@ -8465,7 +8645,7 @@
       <c r="F37" s="36">
         <v>0.13</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="47">
         <v>0.61</v>
       </c>
       <c r="I37" t="b">
@@ -8506,7 +8686,7 @@
       <c r="F38" s="36">
         <v>6.2E-2</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="47">
         <v>0.64</v>
       </c>
       <c r="I38" t="b">
@@ -8547,7 +8727,7 @@
       <c r="F39" s="36">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="47">
         <v>0.7</v>
       </c>
       <c r="I39" t="b">
@@ -8588,7 +8768,7 @@
       <c r="F40" s="36">
         <v>0.19</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="47">
         <v>0.6</v>
       </c>
       <c r="I40" t="b">
@@ -8609,7 +8789,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="F42" s="38"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="28">
         <f>AVERAGE(G2:G40)</f>
         <v>0.63769230769230767</v>
@@ -8721,13 +8901,13 @@
       <c r="G3" s="2">
         <v>1201</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>1136.4332999999999</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>1185.5</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <v>1188.2666999999999</v>
       </c>
       <c r="K3" s="2">
@@ -8738,7 +8918,7 @@
         <f>'Diferencas Media'!T3</f>
         <v>1188.3</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="5" t="str">
         <f>LEFT(A3&amp;"     ",10)&amp;" &amp; "&amp;RIGHT("           "&amp;TEXT(B3,"#.##0"),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(C3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(C3,"#.##0")&amp;IF(C3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(D3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(D3,"#.##0")&amp;IF(D3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(E3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(E3,"#.##0")&amp;IF(E3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(F3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(F3,"#.##0")&amp;IF(F3&gt;=MAX($C3:$G3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(G3&gt;=MAX($C3:$G3),"\bf{","")&amp;TEXT(G3,"#.##0")&amp;IF(G3&gt;=MAX($C3:$G3),"}",""),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(H3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(H3,"#.##0,0")&amp;IF(H3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(I3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(I3,"#.##0,0")&amp;IF(I3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(J3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(J3,"#.##0,0")&amp;IF(J3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(K3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(K3,"#.##0,0")&amp;IF(K3&gt;=MAX($H3:$L3),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(L3&gt;=MAX($H3:$L3),"\bf{","")&amp;TEXT(L3,"#.##0,0")&amp;IF(L3&gt;=MAX($H3:$L3),"}",""),14)&amp;" \\"</f>
         <v>nrp1-30    &amp;          1.204#            &amp;          1.161 &amp;     \bf{1.204} &amp;     \bf{1.204} &amp;          1.187 &amp;          1.201#            &amp;        1.136,4 &amp;        1.185,5 &amp;        1.188,3 &amp;        1.178,1 &amp;   \bf{1.188,3} \\</v>
@@ -8766,13 +8946,13 @@
       <c r="G4" s="5">
         <v>4726</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <v>4315.2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="42">
         <v>4706.2</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="43">
         <v>4756.4332999999997</v>
       </c>
       <c r="K4" s="5">
@@ -8783,7 +8963,7 @@
         <f>'Diferencas Media'!T4</f>
         <v>4605</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="5" t="str">
         <f t="shared" ref="N4:N41" si="0">LEFT(A4&amp;"     ",10)&amp;" &amp; "&amp;RIGHT("           "&amp;TEXT(B4,"#.##0"),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(C4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(C4,"#.##0")&amp;IF(C4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(D4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(D4,"#.##0")&amp;IF(D4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(E4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(E4,"#.##0")&amp;IF(E4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(F4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(F4,"#.##0")&amp;IF(F4&gt;=MAX($C4:$G4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(G4&gt;=MAX($C4:$G4),"\bf{","")&amp;TEXT(G4,"#.##0")&amp;IF(G4&gt;=MAX($C4:$G4),"}",""),14)&amp;"#            &amp; "&amp;RIGHT("           "&amp;IF(H4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(H4,"#.##0,0")&amp;IF(H4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(I4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(I4,"#.##0,0")&amp;IF(I4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(J4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(J4,"#.##0,0")&amp;IF(J4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(K4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(K4,"#.##0,0")&amp;IF(K4&gt;=MAX($H4:$L4),"}",""),14)&amp;" &amp; "&amp;RIGHT("           "&amp;IF(L4&gt;=MAX($H4:$L4),"\bf{","")&amp;TEXT(L4,"#.##0,0")&amp;IF(L4&gt;=MAX($H4:$L4),"}",""),14)&amp;" \\"</f>
         <v>nrp2-30    &amp;          4.970#            &amp;          4.447 &amp;          4.852 &amp;     \bf{4.876} &amp;          2.794 &amp;          4.726#            &amp;        4.315,2 &amp;        4.706,2 &amp;   \bf{4.756,4} &amp;        2.737,0 &amp;        4.605,0 \\</v>
@@ -8811,13 +8991,13 @@
       <c r="G5" s="5">
         <v>7123</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <v>5641.4332999999997</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="42">
         <v>7318.1666999999998</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="43">
         <v>7348.9332999999997</v>
       </c>
       <c r="K5" s="5">
@@ -8828,7 +9008,7 @@
         <f>'Diferencas Media'!T5</f>
         <v>7086</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp3-30    &amp;          7.488#            &amp;          5.896 &amp;          7.410 &amp;     \bf{7.418} &amp;          5.851 &amp;          7.123#            &amp;        5.641,4 &amp;        7.318,2 &amp;   \bf{7.348,9} &amp;        5.719,0 &amp;        7.086,0 \\</v>
@@ -8856,13 +9036,13 @@
       <c r="G6" s="5">
         <v>9818</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>7580.6</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <v>10330.7667</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <v>10384.3333</v>
       </c>
       <c r="K6" s="5">
@@ -8873,7 +9053,7 @@
         <f>'Diferencas Media'!T6</f>
         <v>9710</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp4-30    &amp;         10.690#            &amp;          7.936 &amp;         10.499 &amp;    \bf{10.553} &amp;          6.675 &amp;          9.818#            &amp;        7.580,6 &amp;       10.330,8 &amp;  \bf{10.384,3} &amp;        6.595,7 &amp;        9.710,0 \\</v>
@@ -8901,13 +9081,13 @@
       <c r="G7" s="5">
         <v>17200</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>15736.1667</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="42">
         <v>17078.033299999999</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="43">
         <v>17683.433300000001</v>
       </c>
       <c r="K7" s="5">
@@ -8918,7 +9098,7 @@
         <f>'Diferencas Media'!T7</f>
         <v>17026.900000000001</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp5-30    &amp;         18.510#            &amp;         15.898 &amp;         17.926 &amp;    \bf{18.032} &amp;         10.689 &amp;         17.200#            &amp;       15.736,2 &amp;       17.078,0 &amp;  \bf{17.683,4} &amp;       10.507,0 &amp;       17.026,9 \\</v>
@@ -8946,13 +9126,13 @@
       <c r="G8" s="5">
         <v>1824</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>1720.1</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="42">
         <v>1805.7</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="43">
         <v>1807.1333</v>
       </c>
       <c r="K8" s="5">
@@ -8963,7 +9143,7 @@
         <f>'Diferencas Media'!T8</f>
         <v>1796</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp1-50    &amp;          1.840#            &amp;          1.769 &amp;     \bf{1.836} &amp;     \bf{1.836} &amp;          1.820 &amp;          1.824#            &amp;        1.720,1 &amp;        1.805,7 &amp;   \bf{1.807,1} &amp;        1.806,1 &amp;        1.796,0 \\</v>
@@ -8991,13 +9171,13 @@
       <c r="G9" s="5">
         <v>7566</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>7299.9666999999999</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="42">
         <v>7654.8333000000002</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <v>7701.4</v>
       </c>
       <c r="K9" s="5">
@@ -9008,7 +9188,7 @@
         <f>'Diferencas Media'!T9</f>
         <v>7414</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp2-50    &amp;          8.065#            &amp;          7.413 &amp;          7.794 &amp;     \bf{7.822} &amp;          5.363 &amp;          7.566#            &amp;        7.300,0 &amp;        7.654,8 &amp;   \bf{7.701,4} &amp;        5.276,4 &amp;        7.414,0 \\</v>
@@ -9036,13 +9216,13 @@
       <c r="G10" s="5">
         <v>10897</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>9581.7000000000007</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <v>11015.7667</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>11052.066699999999</v>
       </c>
       <c r="K10" s="5">
@@ -9053,7 +9233,7 @@
         <f>'Diferencas Media'!T10</f>
         <v>10787.2</v>
       </c>
-      <c r="M10" s="43"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp3-50    &amp;         11.159#            &amp;          9.781 &amp;         11.074 &amp;    \bf{11.127} &amp;          9.639 &amp;         10.897#            &amp;        9.581,7 &amp;       11.015,8 &amp;  \bf{11.052,1} &amp;        9.574,2 &amp;       10.787,2 \\</v>
@@ -9081,13 +9261,13 @@
       <c r="G11" s="5">
         <v>15025</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>13170.533299999999</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <v>15683.2333</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <v>15713.6667</v>
       </c>
       <c r="K11" s="5">
@@ -9098,7 +9278,7 @@
         <f>'Diferencas Media'!T11</f>
         <v>14815.5</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp4-50    &amp;         15.985#            &amp;         13.367 &amp;         15.788 &amp;    \bf{15.856} &amp;         12.781 &amp;         15.025#            &amp;       13.170,5 &amp;       15.683,2 &amp;  \bf{15.713,7} &amp;       12.595,4 &amp;       14.815,5 \\</v>
@@ -9126,13 +9306,13 @@
       <c r="G12" s="5">
         <v>24240</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <v>22726.7</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="42">
         <v>24362.2667</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>24451.066699999999</v>
       </c>
       <c r="K12" s="5">
@@ -9143,7 +9323,7 @@
         <f>'Diferencas Media'!T12</f>
         <v>24087.5</v>
       </c>
-      <c r="M12" s="43"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp5-50    &amp;         24.701#            &amp;         23.011 &amp;         24.473 &amp;    \bf{24.598} &amp;         18.950 &amp;         24.240#            &amp;       22.726,7 &amp;       24.362,3 &amp;  \bf{24.451,1} &amp;       18.732,9 &amp;       24.087,5 \\</v>
@@ -9171,13 +9351,13 @@
       <c r="G13" s="5">
         <v>2507</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>2434.4666999999999</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="42">
         <v>2504.8667</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <v>2504.6667000000002</v>
       </c>
       <c r="K13" s="5">
@@ -9188,7 +9368,7 @@
         <f>'Diferencas Media'!T13</f>
         <v>2507</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp1-70    &amp;          2.507#            &amp;          2.472 &amp;     \bf{2.507} &amp;     \bf{2.507} &amp;     \bf{2.507} &amp;     \bf{2.507}#            &amp;        2.434,5 &amp;        2.504,9 &amp;        2.504,7 &amp;        2.505,4 &amp;   \bf{2.507,0} \\</v>
@@ -9216,13 +9396,13 @@
       <c r="G14" s="5">
         <v>10987</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>10836.6667</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="42">
         <v>11092.6667</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <v>11116.7333</v>
       </c>
       <c r="K14" s="5">
@@ -9233,7 +9413,7 @@
         <f>'Diferencas Media'!T14</f>
         <v>10924.7</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp2-70    &amp;         11.316#            &amp;         10.888 &amp;         11.172 &amp;    \bf{11.184} &amp;          9.018 &amp;         10.987#            &amp;       10.836,7 &amp;       11.092,7 &amp;  \bf{11.116,7} &amp;        8.881,1 &amp;       10.924,7 \\</v>
@@ -9261,13 +9441,13 @@
       <c r="G15" s="5">
         <v>14180</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>13753.6333</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="42">
         <v>14148.1667</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43">
         <v>14182.533299999999</v>
       </c>
       <c r="K15" s="5">
@@ -9278,7 +9458,7 @@
         <f>'Diferencas Media'!T15</f>
         <v>14159.2</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp3-70    &amp;         14.196#            &amp;         13.892 &amp;         14.169 &amp;    \bf{14.192} &amp;         12.454 &amp;         14.180#            &amp;       13.753,6 &amp;       14.148,2 &amp;  \bf{14.182,5} &amp;       12.360,7 &amp;       14.159,2 \\</v>
@@ -9306,13 +9486,13 @@
       <c r="G16" s="5">
         <v>20853</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>19805.533299999999</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="42">
         <v>20762.866699999999</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <v>20850.2667</v>
       </c>
       <c r="K16" s="5">
@@ -9323,7 +9503,7 @@
         <f>'Diferencas Media'!T16</f>
         <v>20819.7</v>
       </c>
-      <c r="M16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp4-70    &amp;         20.913#            &amp;         19.968 &amp;         20.872 &amp;    \bf{20.900} &amp;         17.327 &amp;         20.853#            &amp;       19.805,5 &amp;       20.762,9 &amp;  \bf{20.850,3} &amp;       17.189,9 &amp;       20.819,7 \\</v>
@@ -9351,13 +9531,13 @@
       <c r="G17" s="5">
         <v>28909</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>28697.7</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="42">
         <v>28850.033299999999</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <v>28892.7667</v>
       </c>
       <c r="K17" s="5">
@@ -9368,7 +9548,7 @@
         <f>'Diferencas Media'!T17</f>
         <v>28894.2</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp5-70    &amp;         28.912#            &amp;         28.777 &amp;         28.887 &amp;         28.908 &amp;         22.174 &amp;    \bf{28.909}#            &amp;       28.697,7 &amp;       28.850,0 &amp;       28.892,8 &amp;       22.026,5 &amp;  \bf{28.894,2} \\</v>
@@ -9396,13 +9576,13 @@
       <c r="G18" s="5">
         <v>7572</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>5919.3666999999996</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="42">
         <v>7829.3666999999996</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <v>7830</v>
       </c>
       <c r="K18" s="5">
@@ -9413,7 +9593,7 @@
         <f>'Diferencas Media'!T18</f>
         <v>7528.2</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e1-30  &amp;          7.919#            &amp;          6.092 &amp;          7.873 &amp;     \bf{7.885} &amp;          6.662 &amp;          7.572#            &amp;        5.919,4 &amp;        7.829,4 &amp;   \bf{7.830,0} &amp;        6.553,4 &amp;        7.528,2 \\</v>
@@ -9441,13 +9621,13 @@
       <c r="G19" s="5">
         <v>7169</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>5531.7</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="42">
         <v>7377.5</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <v>7382.9</v>
       </c>
       <c r="K19" s="5">
@@ -9458,7 +9638,7 @@
         <f>'Diferencas Media'!T19</f>
         <v>7109.9</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e2-30  &amp;          7.446#            &amp;          5.752 &amp;          7.411 &amp;     \bf{7.418} &amp;          6.275 &amp;          7.169#            &amp;        5.531,7 &amp;        7.377,5 &amp;   \bf{7.382,9} &amp;        6.219,6 &amp;        7.109,9 \\</v>
@@ -9486,13 +9666,13 @@
       <c r="G20" s="5">
         <v>6461</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>5044.1333000000004</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="42">
         <v>6606.4666999999999</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="43">
         <v>6614.0667000000003</v>
       </c>
       <c r="K20" s="5">
@@ -9503,7 +9683,7 @@
         <f>'Diferencas Media'!T20</f>
         <v>6413</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e3-30  &amp;          6.666#            &amp;          5.177 &amp;          6.642 &amp;     \bf{6.655} &amp;          5.795 &amp;          6.461#            &amp;        5.044,1 &amp;        6.606,5 &amp;   \bf{6.614,1} &amp;        5.693,1 &amp;        6.413,0 \\</v>
@@ -9531,13 +9711,13 @@
       <c r="G21" s="5">
         <v>5692</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>4438.6333000000004</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="42">
         <v>5761.8333000000002</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <v>5762.6333000000004</v>
       </c>
       <c r="K21" s="5">
@@ -9548,7 +9728,7 @@
         <f>'Diferencas Media'!T21</f>
         <v>5636.2</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e4-30  &amp;          5.891#            &amp;          4.554 &amp;          5.789 &amp;     \bf{5.794} &amp;          5.065 &amp;          5.692#            &amp;        4.438,6 &amp;        5.761,8 &amp;   \bf{5.762,6} &amp;        5.023,8 &amp;        5.636,2 \\</v>
@@ -9576,13 +9756,13 @@
       <c r="G22" s="5">
         <v>5938</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>4799.8</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <v>6076.4</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <v>6081.6666999999998</v>
       </c>
       <c r="K22" s="5">
@@ -9593,7 +9773,7 @@
         <f>'Diferencas Media'!T22</f>
         <v>5911.3</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g1-30  &amp;          6.130#            &amp;          4.939 &amp;          6.105 &amp;     \bf{6.113} &amp;          5.494 &amp;          5.938#            &amp;        4.799,8 &amp;        6.076,4 &amp;   \bf{6.081,7} &amp;        5.437,0 &amp;        5.911,3 \\</v>
@@ -9621,13 +9801,13 @@
       <c r="G23" s="5">
         <v>4526</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>3672.9333000000001</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="42">
         <v>4549.1000000000004</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <v>4553.2</v>
       </c>
       <c r="K23" s="5">
@@ -9638,7 +9818,7 @@
         <f>'Diferencas Media'!T23</f>
         <v>4486.2</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g2-30  &amp;          4.580#            &amp;          3.775 &amp;          4.567 &amp;     \bf{4.572} &amp;          4.256 &amp;          4.526#            &amp;        3.672,9 &amp;        4.549,1 &amp;   \bf{4.553,2} &amp;        4.195,5 &amp;        4.486,2 \\</v>
@@ -9666,13 +9846,13 @@
       <c r="G24" s="5">
         <v>5802</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>4681.1000000000004</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="42">
         <v>5887.7667000000001</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <v>5889.2667000000001</v>
       </c>
       <c r="K24" s="5">
@@ -9683,7 +9863,7 @@
         <f>'Diferencas Media'!T24</f>
         <v>5736.5</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g3-30  &amp;          5.932#            &amp;          4.842 &amp;     \bf{5.917} &amp;          5.913 &amp;          5.351 &amp;          5.802#            &amp;        4.681,1 &amp;        5.887,8 &amp;   \bf{5.889,3} &amp;        5.296,6 &amp;        5.736,5 \\</v>
@@ -9711,13 +9891,13 @@
       <c r="G25" s="5">
         <v>4190</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>3395.2667000000001</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="42">
         <v>4195.7</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>4194.6000000000004</v>
       </c>
       <c r="K25" s="5">
@@ -9728,7 +9908,7 @@
         <f>'Diferencas Media'!T25</f>
         <v>4159</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g4-30  &amp;          4.218#            &amp;          3.463 &amp;     \bf{4.213} &amp;          4.210 &amp;          3.951 &amp;          4.190#            &amp;        3.395,3 &amp;   \bf{4.195,7} &amp;        4.194,6 &amp;        3.909,9 &amp;        4.159,0 \\</v>
@@ -9756,13 +9936,13 @@
       <c r="G26" s="5">
         <v>10008</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>7545.9666999999999</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="42">
         <v>10574.5</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="43">
         <v>10590.1667</v>
       </c>
       <c r="K26" s="5">
@@ -9773,7 +9953,7 @@
         <f>'Diferencas Media'!T26</f>
         <v>9889.6</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="42"/>
       <c r="N26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m1-30  &amp;         10.770#            &amp;          7.720 &amp;         10.683 &amp;    \bf{10.702} &amp;          8.268 &amp;         10.008#            &amp;        7.546,0 &amp;       10.574,5 &amp;  \bf{10.590,2} &amp;        8.188,3 &amp;        9.889,6 \\</v>
@@ -9801,13 +9981,13 @@
       <c r="G27" s="5">
         <v>8272</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>6178.4332999999997</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="42">
         <v>8593.7000000000007</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="43">
         <v>8601.0666999999994</v>
       </c>
       <c r="K27" s="5">
@@ -9818,7 +9998,7 @@
         <f>'Diferencas Media'!T27</f>
         <v>8147.5</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
       <c r="N27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m2-30  &amp;          8.707#            &amp;          6.521 &amp;          8.647 &amp;     \bf{8.658} &amp;          6.928 &amp;          8.272#            &amp;        6.178,4 &amp;        8.593,7 &amp;   \bf{8.601,1} &amp;        6.863,9 &amp;        8.147,5 \\</v>
@@ -9846,13 +10026,13 @@
       <c r="G28" s="5">
         <v>9559</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>7265.0333000000001</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="42">
         <v>10192.3667</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>10194.6333</v>
       </c>
       <c r="K28" s="5">
@@ -9863,7 +10043,7 @@
         <f>'Diferencas Media'!T28</f>
         <v>9499.7000000000007</v>
       </c>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m3-30  &amp;         10.391#            &amp;          7.397 &amp;         10.271 &amp;    \bf{10.272} &amp;          8.091 &amp;          9.559#            &amp;        7.265,0 &amp;       10.192,4 &amp;  \bf{10.194,6} &amp;        8.016,1 &amp;        9.499,7 \\</v>
@@ -9891,13 +10071,13 @@
       <c r="G29" s="5">
         <v>7408</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>5579.9332999999997</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="42">
         <v>7683.8</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <v>7692.0667000000003</v>
       </c>
       <c r="K29" s="5">
@@ -9908,7 +10088,7 @@
         <f>'Diferencas Media'!T29</f>
         <v>7319.3</v>
       </c>
-      <c r="M29" s="43"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m4-30  &amp;          7.777#            &amp;          5.724 &amp;          7.730 &amp;     \bf{7.743} &amp;          6.413 &amp;          7.408#            &amp;        5.579,9 &amp;        7.683,8 &amp;   \bf{7.692,1} &amp;        6.341,3 &amp;        7.319,3 \\</v>
@@ -9936,13 +10116,13 @@
       <c r="G30" s="5">
         <v>10664</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>9344.6332999999995</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <v>10988.6667</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <v>11001.1333</v>
       </c>
       <c r="K30" s="5">
@@ -9953,7 +10133,7 @@
         <f>'Diferencas Media'!T30</f>
         <v>10589.2</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e1-50  &amp;         11.070#            &amp;          9.521 &amp;         11.028 &amp;    \bf{11.040} &amp;          9.801 &amp;         10.664#            &amp;        9.344,6 &amp;       10.988,7 &amp;  \bf{11.001,1} &amp;        9.756,3 &amp;       10.589,2 \\</v>
@@ -9981,13 +10161,13 @@
       <c r="G31" s="5">
         <v>10098</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>8760.0666999999994</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="42">
         <v>10325.1333</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="43">
         <v>10330.033299999999</v>
       </c>
       <c r="K31" s="5">
@@ -9998,7 +10178,7 @@
         <f>'Diferencas Media'!T31</f>
         <v>9999.7999999999993</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="42"/>
       <c r="N31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e2-50  &amp;         10.381#            &amp;          8.961 &amp;         10.350 &amp;    \bf{10.359} &amp;          9.203 &amp;         10.098#            &amp;        8.760,1 &amp;       10.325,1 &amp;  \bf{10.330,0} &amp;        9.172,9 &amp;        9.999,8 \\</v>
@@ -10026,13 +10206,13 @@
       <c r="G32" s="5">
         <v>9175</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>7945.2</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="42">
         <v>9314.6332999999995</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="43">
         <v>9319.5</v>
       </c>
       <c r="K32" s="5">
@@ -10043,7 +10223,7 @@
         <f>'Diferencas Media'!T32</f>
         <v>9100.1</v>
       </c>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
       <c r="N32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e3-50  &amp;          9.362#            &amp;          8.154 &amp;          9.336 &amp;     \bf{9.341} &amp;          8.491 &amp;          9.175#            &amp;        7.945,2 &amp;        9.314,6 &amp;   \bf{9.319,5} &amp;        8.391,1 &amp;        9.100,1 \\</v>
@@ -10071,13 +10251,13 @@
       <c r="G33" s="5">
         <v>8043</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>6936.5</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="42">
         <v>8136.3333000000002</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="43">
         <v>8139.3333000000002</v>
       </c>
       <c r="K33" s="5">
@@ -10088,7 +10268,7 @@
         <f>'Diferencas Media'!T33</f>
         <v>7968</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-e4-50  &amp;          8.174#            &amp;          7.139 &amp;     \bf{8.165} &amp;          8.163 &amp;          7.487 &amp;          8.043#            &amp;        6.936,5 &amp;        8.136,3 &amp;   \bf{8.139,3} &amp;        7.418,9 &amp;        7.968,0 \\</v>
@@ -10116,13 +10296,13 @@
       <c r="G34" s="5">
         <v>8714</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>7643.7</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <v>8845.8333000000002</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="43">
         <v>8851.8667000000005</v>
       </c>
       <c r="K34" s="5">
@@ -10133,7 +10313,7 @@
         <f>'Diferencas Media'!T34</f>
         <v>8660</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g1-50  &amp;          8.897#            &amp;          7.784 &amp;     \bf{8.879} &amp;          8.872 &amp;          8.223 &amp;          8.714#            &amp;        7.643,7 &amp;        8.845,8 &amp;   \bf{8.851,9} &amp;        8.151,7 &amp;        8.660,0 \\</v>
@@ -10161,13 +10341,13 @@
       <c r="G35" s="5">
         <v>6502</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>5742.1666999999998</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="42">
         <v>6529.4666999999999</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="43">
         <v>6533.3</v>
       </c>
       <c r="K35" s="5">
@@ -10178,7 +10358,7 @@
         <f>'Diferencas Media'!T35</f>
         <v>6470.2</v>
       </c>
-      <c r="M35" s="43"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g2-50  &amp;          6.553#            &amp;          5.886 &amp;          6.544 &amp;     \bf{6.546} &amp;          6.219 &amp;          6.502#            &amp;        5.742,2 &amp;        6.529,5 &amp;   \bf{6.533,3} &amp;        6.138,4 &amp;        6.470,2 \\</v>
@@ -10206,13 +10386,13 @@
       <c r="G36" s="5">
         <v>8402</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <v>7379.1</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="42">
         <v>8457.6</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="43">
         <v>8455.6</v>
       </c>
       <c r="K36" s="5">
@@ -10223,7 +10403,7 @@
         <f>'Diferencas Media'!T36</f>
         <v>8326.7999999999993</v>
       </c>
-      <c r="M36" s="43"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g3-50  &amp;          8.501#            &amp;          7.505 &amp;          8.483 &amp;     \bf{8.484} &amp;          7.903 &amp;          8.402#            &amp;        7.379,1 &amp;   \bf{8.457,6} &amp;        8.455,6 &amp;        7.849,8 &amp;        8.326,8 \\</v>
@@ -10251,13 +10431,13 @@
       <c r="G37" s="5">
         <v>6030</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>5293.9332999999997</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="42">
         <v>6041.5</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="43">
         <v>6045.5</v>
       </c>
       <c r="K37" s="5">
@@ -10268,7 +10448,7 @@
         <f>'Diferencas Media'!T37</f>
         <v>5986.5</v>
       </c>
-      <c r="M37" s="43"/>
+      <c r="M37" s="42"/>
       <c r="N37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-g4-50  &amp;          6.063#            &amp;          5.422 &amp;     \bf{6.058} &amp;          6.056 &amp;          5.751 &amp;          6.030#            &amp;        5.293,9 &amp;        6.041,5 &amp;   \bf{6.045,5} &amp;        5.721,3 &amp;        5.986,5 \\</v>
@@ -10296,13 +10476,13 @@
       <c r="G38" s="5">
         <v>14588</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>12479.7333</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="42">
         <v>15362.566699999999</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="43">
         <v>15378.8667</v>
       </c>
       <c r="K38" s="5">
@@ -10313,7 +10493,7 @@
         <f>'Diferencas Media'!T38</f>
         <v>14437.7</v>
       </c>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
       <c r="N38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m1-50  &amp;         15.540#            &amp;         12.743 &amp;         15.454 &amp;    \bf{15.476} &amp;         13.287 &amp;         14.588#            &amp;       12.479,7 &amp;       15.362,6 &amp;  \bf{15.378,9} &amp;       13.030,8 &amp;       14.437,7 \\</v>
@@ -10341,13 +10521,13 @@
       <c r="G39" s="5">
         <v>11975</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <v>10222.9</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="42">
         <v>12484.1</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="43">
         <v>12496.2333</v>
       </c>
       <c r="K39" s="5">
@@ -10358,7 +10538,7 @@
         <f>'Diferencas Media'!T39</f>
         <v>11883.5</v>
       </c>
-      <c r="M39" s="43"/>
+      <c r="M39" s="42"/>
       <c r="N39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m2-50  &amp;         12.585#            &amp;         10.461 &amp;    \bf{12.548} &amp;         12.545 &amp;         10.873 &amp;         11.975#            &amp;       10.222,9 &amp;       12.484,1 &amp;  \bf{12.496,2} &amp;       10.776,5 &amp;       11.883,5 \\</v>
@@ -10386,13 +10566,13 @@
       <c r="G40" s="5">
         <v>14138</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <v>12090.8667</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="42">
         <v>14920.433300000001</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="43">
         <v>14949.433300000001</v>
       </c>
       <c r="K40" s="5">
@@ -10403,7 +10583,7 @@
         <f>'Diferencas Media'!T40</f>
         <v>14036.6</v>
       </c>
-      <c r="M40" s="43"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m3-50  &amp;         15.096#            &amp;         12.309 &amp;         14.979 &amp;    \bf{15.021} &amp;         12.969 &amp;         14.138#            &amp;       12.090,9 &amp;       14.920,4 &amp;  \bf{14.949,4} &amp;       12.853,4 &amp;       14.036,6 \\</v>
@@ -10431,13 +10611,13 @@
       <c r="G41" s="8">
         <v>10893</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="44">
         <v>9259.7667000000001</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="45">
         <v>11286.2667</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="46">
         <v>11290.033299999999</v>
       </c>
       <c r="K41" s="8">
@@ -10448,7 +10628,7 @@
         <f>'Diferencas Media'!T41</f>
         <v>10790.7</v>
       </c>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
       <c r="N41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>nrp-m4-50  &amp;         11.369#            &amp;          9.392 &amp;    \bf{11.346} &amp;         11.316 &amp;          9.970 &amp;         10.893#            &amp;        9.259,8 &amp;       11.286,3 &amp;  \bf{11.290,0} &amp;        9.923,2 &amp;       10.790,7 \\</v>

--- a/scripts/worksheets/Resultados.xlsx
+++ b/scripts/worksheets/Resultados.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19660" tabRatio="908"/>
+    <workbookView xWindow="460" yWindow="180" windowWidth="37380" windowHeight="19120" tabRatio="908" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencas Maximo" sheetId="1" r:id="rId1"/>
     <sheet name="Diferencas Media" sheetId="2" r:id="rId2"/>
     <sheet name="Comparacao ILS x VISILS" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Instances" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="80">
   <si>
     <t>instance</t>
   </si>
@@ -233,17 +234,49 @@
   <si>
     <t>OPT &gt;= BMA</t>
   </si>
+  <si>
+    <t>ILS Med</t>
+  </si>
+  <si>
+    <t>VISILS Med</t>
+  </si>
+  <si>
+    <t>Reqs</t>
+  </si>
+  <si>
+    <t>Deps</t>
+  </si>
+  <si>
+    <t>Cust</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>Cust Corte Med</t>
+  </si>
+  <si>
+    <t>Cust Corte Max</t>
+  </si>
+  <si>
+    <t>% Corte</t>
+  </si>
+  <si>
+    <t>Deps/Req</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +332,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="359">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,8 +829,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -838,8 +967,54 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="359">
+  <cellStyles count="437">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1019,6 +1194,45 @@
     <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1197,6 +1411,45 @@
     <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1492,9 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -1624,7 +1875,7 @@
       </c>
       <c r="N3" s="29"/>
       <c r="O3" s="29">
-        <f t="shared" ref="O3:P41" si="6">(X3-D3)/X3</f>
+        <f t="shared" ref="O3:O41" si="6">(X3-D3)/X3</f>
         <v>0</v>
       </c>
       <c r="P3" s="29">
@@ -4595,7 +4846,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="T3" sqref="T3:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10643,4 +10894,2342 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="34" customFormat="1">
+      <c r="A2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="71">
+        <v>1204</v>
+      </c>
+      <c r="C2" s="72">
+        <v>1188.2666999999999</v>
+      </c>
+      <c r="D2" s="72">
+        <v>1185.5</v>
+      </c>
+      <c r="E2" s="73" t="str">
+        <f t="shared" ref="E2:E40" si="0">IF(C2&gt;=D2,"V","I")</f>
+        <v>V</v>
+      </c>
+      <c r="F2" s="73">
+        <v>1188.3</v>
+      </c>
+      <c r="G2" s="73" t="str">
+        <f>IF(ROUND(C2,1)&gt;=F2,"V","B")</f>
+        <v>V</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72">
+        <f>140</f>
+        <v>140</v>
+      </c>
+      <c r="J2" s="72">
+        <f>20*8+40*2</f>
+        <v>240</v>
+      </c>
+      <c r="K2" s="72">
+        <v>100</v>
+      </c>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72">
+        <v>23</v>
+      </c>
+      <c r="N2" s="71">
+        <v>26</v>
+      </c>
+      <c r="P2" s="77">
+        <f>M2/K2</f>
+        <v>0.23</v>
+      </c>
+      <c r="R2" s="74">
+        <f>J2/I2</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="T2" s="76">
+        <f>100*(ROUND(C2,1)-F2)/ROUND(C2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="34" t="str">
+        <f>SUBSTITUTE(K2,",",".")&amp;","</f>
+        <v>100,</v>
+      </c>
+      <c r="V2" s="34">
+        <f>CORREL(P2:P40,T2:T40)</f>
+        <v>-0.45334692719120878</v>
+      </c>
+      <c r="W2" s="34">
+        <f>CORREL(R2:R16,T2:T16)</f>
+        <v>0.36901961019780871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="48">
+        <v>4970</v>
+      </c>
+      <c r="C3" s="49">
+        <v>4756.4332999999997</v>
+      </c>
+      <c r="D3" s="49">
+        <v>4706.2</v>
+      </c>
+      <c r="E3" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F3" s="50">
+        <v>4605</v>
+      </c>
+      <c r="G3" s="50" t="str">
+        <f t="shared" ref="G3:G40" si="1">IF(ROUND(C3,1)&gt;=F3,"V","B")</f>
+        <v>V</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49">
+        <f>20+40+80+160+320</f>
+        <v>620</v>
+      </c>
+      <c r="J3" s="49">
+        <f>20*8+40*6+80*4+160*2</f>
+        <v>1040</v>
+      </c>
+      <c r="K3" s="49">
+        <v>500</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49">
+        <v>81.666700000000006</v>
+      </c>
+      <c r="N3" s="48">
+        <v>87</v>
+      </c>
+      <c r="P3" s="78">
+        <f t="shared" ref="P3:P40" si="2">M3/K3</f>
+        <v>0.16333340000000002</v>
+      </c>
+      <c r="R3" s="56">
+        <f t="shared" ref="R3:R16" si="3">J3/I3</f>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="T3" s="76">
+        <f t="shared" ref="T3:T40" si="4">100*(ROUND(C3,1)-F3)/ROUND(C3,1)</f>
+        <v>3.1830796400639065</v>
+      </c>
+      <c r="U3" s="34" t="str">
+        <f t="shared" ref="U3:U40" si="5">SUBSTITUTE(K3,",",".")&amp;","</f>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="48">
+        <v>7488</v>
+      </c>
+      <c r="C4" s="49">
+        <v>7348.9332999999997</v>
+      </c>
+      <c r="D4" s="49">
+        <v>7318.1666999999998</v>
+      </c>
+      <c r="E4" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F4" s="50">
+        <v>7086</v>
+      </c>
+      <c r="G4" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49">
+        <f>250+500+750</f>
+        <v>1500</v>
+      </c>
+      <c r="J4" s="49">
+        <f>250*8+500*2</f>
+        <v>3000</v>
+      </c>
+      <c r="K4" s="49">
+        <v>500</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49">
+        <v>171.5667</v>
+      </c>
+      <c r="N4" s="48">
+        <v>179</v>
+      </c>
+      <c r="P4" s="78">
+        <f t="shared" si="2"/>
+        <v>0.34313339999999998</v>
+      </c>
+      <c r="R4" s="56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T4" s="76">
+        <f t="shared" si="4"/>
+        <v>3.577406142415867</v>
+      </c>
+      <c r="U4" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="48">
+        <v>10690</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10384.3333</v>
+      </c>
+      <c r="D5" s="49">
+        <v>10330.7667</v>
+      </c>
+      <c r="E5" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F5" s="50">
+        <v>9710</v>
+      </c>
+      <c r="G5" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49">
+        <f>250+500+750+1000+750</f>
+        <v>3250</v>
+      </c>
+      <c r="J5" s="49">
+        <f>250*8+500*6+750*4+1000*2</f>
+        <v>10000</v>
+      </c>
+      <c r="K5" s="49">
+        <v>750</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49">
+        <v>234.83330000000001</v>
+      </c>
+      <c r="N5" s="48">
+        <v>243</v>
+      </c>
+      <c r="P5" s="78">
+        <f t="shared" si="2"/>
+        <v>0.31311106666666666</v>
+      </c>
+      <c r="R5" s="56">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="T5" s="76">
+        <f t="shared" si="4"/>
+        <v>6.4934564679371682</v>
+      </c>
+      <c r="U5" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>750,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="48">
+        <v>18510</v>
+      </c>
+      <c r="C6" s="49">
+        <v>17683.433300000001</v>
+      </c>
+      <c r="D6" s="49">
+        <v>17078.033299999999</v>
+      </c>
+      <c r="E6" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F6" s="50">
+        <v>17026.900000000001</v>
+      </c>
+      <c r="G6" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49">
+        <f>1500</f>
+        <v>1500</v>
+      </c>
+      <c r="J6" s="49">
+        <f>500*4+500*4</f>
+        <v>4000</v>
+      </c>
+      <c r="K6" s="49">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49">
+        <v>391.63330000000002</v>
+      </c>
+      <c r="N6" s="48">
+        <v>405</v>
+      </c>
+      <c r="P6" s="78">
+        <f t="shared" si="2"/>
+        <v>0.39163330000000002</v>
+      </c>
+      <c r="R6" s="56">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="T6" s="76">
+        <f t="shared" si="4"/>
+        <v>3.7125213477046266</v>
+      </c>
+      <c r="U6" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>1000,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1840</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1807.1333</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1805.7</v>
+      </c>
+      <c r="E7" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F7" s="50">
+        <v>1796</v>
+      </c>
+      <c r="G7" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49">
+        <f>I2</f>
+        <v>140</v>
+      </c>
+      <c r="J7" s="49">
+        <f>J2</f>
+        <v>240</v>
+      </c>
+      <c r="K7" s="49">
+        <f>K2</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49">
+        <v>40.566699999999997</v>
+      </c>
+      <c r="N7" s="48">
+        <v>45</v>
+      </c>
+      <c r="P7" s="78">
+        <f t="shared" si="2"/>
+        <v>0.405667</v>
+      </c>
+      <c r="R7" s="56">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="T7" s="76">
+        <f t="shared" si="4"/>
+        <v>0.6142438160588739</v>
+      </c>
+      <c r="U7" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>100,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="48">
+        <v>8065</v>
+      </c>
+      <c r="C8" s="49">
+        <v>7701.4</v>
+      </c>
+      <c r="D8" s="49">
+        <v>7654.8333000000002</v>
+      </c>
+      <c r="E8" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F8" s="50">
+        <v>7414</v>
+      </c>
+      <c r="G8" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49">
+        <f t="shared" ref="I8:J11" si="6">I3</f>
+        <v>620</v>
+      </c>
+      <c r="J8" s="49">
+        <f t="shared" si="6"/>
+        <v>1040</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" ref="K8" si="7">K3</f>
+        <v>500</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49">
+        <v>152.33330000000001</v>
+      </c>
+      <c r="N8" s="48">
+        <v>161</v>
+      </c>
+      <c r="P8" s="78">
+        <f t="shared" si="2"/>
+        <v>0.30466660000000001</v>
+      </c>
+      <c r="R8" s="56">
+        <f t="shared" si="3"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="T8" s="76">
+        <f t="shared" si="4"/>
+        <v>3.7317890253720059</v>
+      </c>
+      <c r="U8" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="48">
+        <v>11159</v>
+      </c>
+      <c r="C9" s="49">
+        <v>11052.066699999999</v>
+      </c>
+      <c r="D9" s="49">
+        <v>11015.7667</v>
+      </c>
+      <c r="E9" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F9" s="50">
+        <v>10787.2</v>
+      </c>
+      <c r="G9" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="J9" s="49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" ref="K9" si="8">K4</f>
+        <v>500</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49">
+        <v>296.33300000000003</v>
+      </c>
+      <c r="N9" s="48">
+        <v>304</v>
+      </c>
+      <c r="P9" s="78">
+        <f t="shared" si="2"/>
+        <v>0.59266600000000003</v>
+      </c>
+      <c r="R9" s="56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T9" s="76">
+        <f t="shared" si="4"/>
+        <v>2.3968295618027309</v>
+      </c>
+      <c r="U9" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="48">
+        <v>15985</v>
+      </c>
+      <c r="C10" s="49">
+        <v>15713.6667</v>
+      </c>
+      <c r="D10" s="49">
+        <v>15683.2333</v>
+      </c>
+      <c r="E10" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F10" s="50">
+        <v>14815.5</v>
+      </c>
+      <c r="G10" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49">
+        <f t="shared" si="6"/>
+        <v>3250</v>
+      </c>
+      <c r="J10" s="49">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" ref="K10" si="9">K5</f>
+        <v>750</v>
+      </c>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49">
+        <v>414.36669999999998</v>
+      </c>
+      <c r="N10" s="48">
+        <v>426</v>
+      </c>
+      <c r="P10" s="78">
+        <f t="shared" si="2"/>
+        <v>0.55248893333333327</v>
+      </c>
+      <c r="R10" s="56">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="T10" s="76">
+        <f t="shared" si="4"/>
+        <v>5.7160312338914494</v>
+      </c>
+      <c r="U10" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>750,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="48">
+        <v>24701</v>
+      </c>
+      <c r="C11" s="49">
+        <v>24451.066699999999</v>
+      </c>
+      <c r="D11" s="49">
+        <v>24362.2667</v>
+      </c>
+      <c r="E11" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F11" s="50">
+        <v>24087.5</v>
+      </c>
+      <c r="G11" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="J11" s="49">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" ref="K11" si="10">K6</f>
+        <v>1000</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49">
+        <v>663</v>
+      </c>
+      <c r="N11" s="48">
+        <v>672</v>
+      </c>
+      <c r="P11" s="78">
+        <f t="shared" si="2"/>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="R11" s="56">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="T11" s="76">
+        <f t="shared" si="4"/>
+        <v>1.4870496623873715</v>
+      </c>
+      <c r="U11" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>1000,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="68" customFormat="1">
+      <c r="A12" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="65">
+        <v>2507</v>
+      </c>
+      <c r="C12" s="66">
+        <v>2504.6667000000002</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2504.8667</v>
+      </c>
+      <c r="E12" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="F12" s="67">
+        <v>2507</v>
+      </c>
+      <c r="G12" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="H12" s="75">
+        <f>(F12-C12)/C12</f>
+        <v>9.3158103631105118E-4</v>
+      </c>
+      <c r="I12" s="66">
+        <f>I2</f>
+        <v>140</v>
+      </c>
+      <c r="J12" s="66">
+        <f>J2</f>
+        <v>240</v>
+      </c>
+      <c r="K12" s="66">
+        <f>K2</f>
+        <v>100</v>
+      </c>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66">
+        <v>65.533299999999997</v>
+      </c>
+      <c r="N12" s="65">
+        <v>72</v>
+      </c>
+      <c r="P12" s="79">
+        <f t="shared" si="2"/>
+        <v>0.65533299999999994</v>
+      </c>
+      <c r="R12" s="69">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="S12" s="68">
+        <f>RANK(R12,R12:R16)</f>
+        <v>4</v>
+      </c>
+      <c r="T12" s="76">
+        <f t="shared" si="4"/>
+        <v>-9.1827364554644547E-2</v>
+      </c>
+      <c r="U12" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>100,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="48">
+        <v>11316</v>
+      </c>
+      <c r="C13" s="49">
+        <v>11116.7333</v>
+      </c>
+      <c r="D13" s="49">
+        <v>11092.6667</v>
+      </c>
+      <c r="E13" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F13" s="50">
+        <v>10924.7</v>
+      </c>
+      <c r="G13" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49">
+        <f t="shared" ref="I13:J16" si="11">I3</f>
+        <v>620</v>
+      </c>
+      <c r="J13" s="49">
+        <f t="shared" si="11"/>
+        <v>1040</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" ref="K13" si="12">K3</f>
+        <v>500</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49">
+        <v>251.76669999999999</v>
+      </c>
+      <c r="N13" s="48">
+        <v>266</v>
+      </c>
+      <c r="P13" s="78">
+        <f t="shared" si="2"/>
+        <v>0.50353340000000002</v>
+      </c>
+      <c r="R13" s="56">
+        <f t="shared" si="3"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="T13" s="76">
+        <f t="shared" si="4"/>
+        <v>1.7271312529797511</v>
+      </c>
+      <c r="U13" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="48">
+        <v>14196</v>
+      </c>
+      <c r="C14" s="49">
+        <v>14182.533299999999</v>
+      </c>
+      <c r="D14" s="49">
+        <v>14148.1667</v>
+      </c>
+      <c r="E14" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F14" s="50">
+        <v>14159.2</v>
+      </c>
+      <c r="G14" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+      <c r="J14" s="49">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="K14" s="49">
+        <f t="shared" ref="K14" si="13">K4</f>
+        <v>500</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49">
+        <v>452.83330000000001</v>
+      </c>
+      <c r="N14" s="48">
+        <v>461</v>
+      </c>
+      <c r="P14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.90566659999999999</v>
+      </c>
+      <c r="R14" s="56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T14" s="76">
+        <f t="shared" si="4"/>
+        <v>0.1642869733826848</v>
+      </c>
+      <c r="U14" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>500,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="48">
+        <v>20913</v>
+      </c>
+      <c r="C15" s="49">
+        <v>20850.2667</v>
+      </c>
+      <c r="D15" s="49">
+        <v>20762.866699999999</v>
+      </c>
+      <c r="E15" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F15" s="50">
+        <v>20819.7</v>
+      </c>
+      <c r="G15" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49">
+        <f t="shared" si="11"/>
+        <v>3250</v>
+      </c>
+      <c r="J15" s="49">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" ref="K15" si="14">K5</f>
+        <v>750</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49">
+        <v>654.4</v>
+      </c>
+      <c r="N15" s="48">
+        <v>665</v>
+      </c>
+      <c r="P15" s="78">
+        <f t="shared" si="2"/>
+        <v>0.87253333333333327</v>
+      </c>
+      <c r="R15" s="56">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="T15" s="76">
+        <f t="shared" si="4"/>
+        <v>0.1467604782664928</v>
+      </c>
+      <c r="U15" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>750,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="62" customFormat="1">
+      <c r="A16" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="60">
+        <v>28912</v>
+      </c>
+      <c r="C16" s="61">
+        <v>28892.7667</v>
+      </c>
+      <c r="D16" s="61">
+        <v>28850.033299999999</v>
+      </c>
+      <c r="E16" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F16" s="57">
+        <v>28894.2</v>
+      </c>
+      <c r="G16" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="H16" s="75">
+        <f>(F16-C16)/C16</f>
+        <v>4.960757184948299E-5</v>
+      </c>
+      <c r="I16" s="61">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+      <c r="J16" s="61">
+        <f t="shared" si="11"/>
+        <v>4000</v>
+      </c>
+      <c r="K16" s="61">
+        <f t="shared" ref="K16" si="15">K6</f>
+        <v>1000</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61">
+        <v>959.93330000000003</v>
+      </c>
+      <c r="N16" s="60">
+        <v>964</v>
+      </c>
+      <c r="P16" s="80">
+        <f t="shared" si="2"/>
+        <v>0.95993329999999999</v>
+      </c>
+      <c r="R16" s="63">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="T16" s="76">
+        <f t="shared" si="4"/>
+        <v>-4.8454978402974278E-3</v>
+      </c>
+      <c r="U16" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>1000,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="48">
+        <v>7919</v>
+      </c>
+      <c r="C17" s="49">
+        <v>7830</v>
+      </c>
+      <c r="D17" s="49">
+        <v>7829.3666999999996</v>
+      </c>
+      <c r="E17" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F17" s="50">
+        <v>7528.2</v>
+      </c>
+      <c r="G17" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49">
+        <v>3502</v>
+      </c>
+      <c r="J17" s="49">
+        <v>0</v>
+      </c>
+      <c r="K17" s="49">
+        <v>536</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49">
+        <v>186.63329999999999</v>
+      </c>
+      <c r="N17" s="48">
+        <v>195</v>
+      </c>
+      <c r="P17" s="78">
+        <f t="shared" si="2"/>
+        <v>0.3481964552238806</v>
+      </c>
+      <c r="T17" s="76">
+        <f t="shared" si="4"/>
+        <v>3.8544061302682016</v>
+      </c>
+      <c r="U17" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>536,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="48">
+        <v>7446</v>
+      </c>
+      <c r="C18" s="49">
+        <v>7382.9</v>
+      </c>
+      <c r="D18" s="49">
+        <v>7377.5</v>
+      </c>
+      <c r="E18" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F18" s="50">
+        <v>7109.9</v>
+      </c>
+      <c r="G18" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49">
+        <v>4254</v>
+      </c>
+      <c r="J18" s="49">
+        <v>0</v>
+      </c>
+      <c r="K18" s="49">
+        <v>491</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49">
+        <v>171.8</v>
+      </c>
+      <c r="N18" s="48">
+        <v>179</v>
+      </c>
+      <c r="P18" s="78">
+        <f t="shared" si="2"/>
+        <v>0.34989816700610998</v>
+      </c>
+      <c r="T18" s="76">
+        <f t="shared" si="4"/>
+        <v>3.6977339527827819</v>
+      </c>
+      <c r="U18" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>491,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="48">
+        <v>6666</v>
+      </c>
+      <c r="C19" s="49">
+        <v>6614.0667000000003</v>
+      </c>
+      <c r="D19" s="49">
+        <v>6606.4666999999999</v>
+      </c>
+      <c r="E19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F19" s="50">
+        <v>6413</v>
+      </c>
+      <c r="G19" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49">
+        <v>2844</v>
+      </c>
+      <c r="J19" s="49">
+        <v>0</v>
+      </c>
+      <c r="K19" s="49">
+        <v>456</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49">
+        <v>162</v>
+      </c>
+      <c r="N19" s="48">
+        <v>168</v>
+      </c>
+      <c r="P19" s="78">
+        <f t="shared" si="2"/>
+        <v>0.35526315789473684</v>
+      </c>
+      <c r="T19" s="76">
+        <f t="shared" si="4"/>
+        <v>3.0404741385827303</v>
+      </c>
+      <c r="U19" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>456,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="48">
+        <v>5891</v>
+      </c>
+      <c r="C20" s="49">
+        <v>5762.6333000000004</v>
+      </c>
+      <c r="D20" s="49">
+        <v>5761.8333000000002</v>
+      </c>
+      <c r="E20" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F20" s="50">
+        <v>5636.2</v>
+      </c>
+      <c r="G20" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49">
+        <v>3186</v>
+      </c>
+      <c r="J20" s="49">
+        <v>0</v>
+      </c>
+      <c r="K20" s="49">
+        <v>399</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="N20" s="48">
+        <v>148</v>
+      </c>
+      <c r="P20" s="78">
+        <f t="shared" si="2"/>
+        <v>0.35162907268170429</v>
+      </c>
+      <c r="T20" s="76">
+        <f t="shared" si="4"/>
+        <v>2.1934543435255014</v>
+      </c>
+      <c r="U20" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>399,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="48">
+        <v>6130</v>
+      </c>
+      <c r="C21" s="49">
+        <v>6081.6666999999998</v>
+      </c>
+      <c r="D21" s="49">
+        <v>6076.4</v>
+      </c>
+      <c r="E21" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F21" s="50">
+        <v>5911.3</v>
+      </c>
+      <c r="G21" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49">
+        <v>2690</v>
+      </c>
+      <c r="J21" s="49">
+        <v>0</v>
+      </c>
+      <c r="K21" s="49">
+        <v>445</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49">
+        <v>157.0333</v>
+      </c>
+      <c r="N21" s="48">
+        <v>163</v>
+      </c>
+      <c r="P21" s="78">
+        <f t="shared" si="2"/>
+        <v>0.35288382022471909</v>
+      </c>
+      <c r="T21" s="76">
+        <f t="shared" si="4"/>
+        <v>2.8018481674531732</v>
+      </c>
+      <c r="U21" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>445,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="48">
+        <v>4580</v>
+      </c>
+      <c r="C22" s="49">
+        <v>4553.2</v>
+      </c>
+      <c r="D22" s="49">
+        <v>4549.1000000000004</v>
+      </c>
+      <c r="E22" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F22" s="50">
+        <v>4486.2</v>
+      </c>
+      <c r="G22" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49">
+        <v>2650</v>
+      </c>
+      <c r="J22" s="49">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49">
+        <v>315</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49">
+        <v>118.13330000000001</v>
+      </c>
+      <c r="N22" s="48">
+        <v>123</v>
+      </c>
+      <c r="P22" s="78">
+        <f t="shared" si="2"/>
+        <v>0.3750263492063492</v>
+      </c>
+      <c r="T22" s="76">
+        <f t="shared" si="4"/>
+        <v>1.4714925766493896</v>
+      </c>
+      <c r="U22" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>315,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="48">
+        <v>5932</v>
+      </c>
+      <c r="C23" s="49">
+        <v>5889.2667000000001</v>
+      </c>
+      <c r="D23" s="49">
+        <v>5887.7667000000001</v>
+      </c>
+      <c r="E23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F23" s="50">
+        <v>5736.5</v>
+      </c>
+      <c r="G23" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49">
+        <v>2512</v>
+      </c>
+      <c r="J23" s="49">
+        <v>0</v>
+      </c>
+      <c r="K23" s="49">
+        <v>423</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49">
+        <v>151.5667</v>
+      </c>
+      <c r="N23" s="48">
+        <v>193</v>
+      </c>
+      <c r="P23" s="78">
+        <f t="shared" si="2"/>
+        <v>0.35831371158392433</v>
+      </c>
+      <c r="T23" s="76">
+        <f t="shared" si="4"/>
+        <v>2.5945358531574243</v>
+      </c>
+      <c r="U23" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>423,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="55" customFormat="1">
+      <c r="A24" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="53">
+        <v>4218</v>
+      </c>
+      <c r="C24" s="54">
+        <v>4194.6000000000004</v>
+      </c>
+      <c r="D24" s="54">
+        <v>4195.7</v>
+      </c>
+      <c r="E24" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="F24" s="51">
+        <v>4159</v>
+      </c>
+      <c r="G24" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H24" s="75">
+        <f>(D24-C24)/C24</f>
+        <v>2.622419301004754E-4</v>
+      </c>
+      <c r="I24" s="54">
+        <v>2246</v>
+      </c>
+      <c r="J24" s="54">
+        <v>0</v>
+      </c>
+      <c r="K24" s="54">
+        <v>294</v>
+      </c>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54">
+        <v>106.7333</v>
+      </c>
+      <c r="N24" s="53">
+        <v>113</v>
+      </c>
+      <c r="P24" s="75">
+        <f t="shared" si="2"/>
+        <v>0.36303843537414965</v>
+      </c>
+      <c r="T24" s="76">
+        <f t="shared" si="4"/>
+        <v>0.84871024650742288</v>
+      </c>
+      <c r="U24" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>294,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="48">
+        <v>10770</v>
+      </c>
+      <c r="C25" s="49">
+        <v>10590.1667</v>
+      </c>
+      <c r="D25" s="49">
+        <v>10574.5</v>
+      </c>
+      <c r="E25" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F25" s="50">
+        <v>9889.6</v>
+      </c>
+      <c r="G25" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49">
+        <v>4060</v>
+      </c>
+      <c r="J25" s="49">
+        <v>0</v>
+      </c>
+      <c r="K25" s="49">
+        <v>768</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49">
+        <v>240.23330000000001</v>
+      </c>
+      <c r="N25" s="48">
+        <v>246</v>
+      </c>
+      <c r="P25" s="78">
+        <f t="shared" si="2"/>
+        <v>0.3128037760416667</v>
+      </c>
+      <c r="T25" s="76">
+        <f t="shared" si="4"/>
+        <v>6.615550225680348</v>
+      </c>
+      <c r="U25" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>768,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="48">
+        <v>8707</v>
+      </c>
+      <c r="C26" s="49">
+        <v>8601.0666999999994</v>
+      </c>
+      <c r="D26" s="49">
+        <v>8593.7000000000007</v>
+      </c>
+      <c r="E26" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F26" s="50">
+        <v>8147.5</v>
+      </c>
+      <c r="G26" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49">
+        <v>4368</v>
+      </c>
+      <c r="J26" s="49">
+        <v>0</v>
+      </c>
+      <c r="K26" s="49">
+        <v>617</v>
+      </c>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49">
+        <v>198.13329999999999</v>
+      </c>
+      <c r="N26" s="48">
+        <v>206</v>
+      </c>
+      <c r="P26" s="78">
+        <f t="shared" si="2"/>
+        <v>0.32112366288492705</v>
+      </c>
+      <c r="T26" s="76">
+        <f t="shared" si="4"/>
+        <v>5.2737440559928421</v>
+      </c>
+      <c r="U26" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>617,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="48">
+        <v>10391</v>
+      </c>
+      <c r="C27" s="49">
+        <v>10194.6333</v>
+      </c>
+      <c r="D27" s="49">
+        <v>10192.3667</v>
+      </c>
+      <c r="E27" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F27" s="50">
+        <v>9499.7000000000007</v>
+      </c>
+      <c r="G27" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49">
+        <v>3566</v>
+      </c>
+      <c r="J27" s="49">
+        <v>0</v>
+      </c>
+      <c r="K27" s="49">
+        <v>765</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49">
+        <v>234.16659999999999</v>
+      </c>
+      <c r="N27" s="48">
+        <v>240</v>
+      </c>
+      <c r="P27" s="78">
+        <f t="shared" si="2"/>
+        <v>0.30610013071895426</v>
+      </c>
+      <c r="T27" s="76">
+        <f t="shared" si="4"/>
+        <v>6.8163537559099883</v>
+      </c>
+      <c r="U27" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>765,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="48">
+        <v>7777</v>
+      </c>
+      <c r="C28" s="49">
+        <v>7692.0667000000003</v>
+      </c>
+      <c r="D28" s="49">
+        <v>7683.8</v>
+      </c>
+      <c r="E28" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F28" s="50">
+        <v>7319.3</v>
+      </c>
+      <c r="G28" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49">
+        <v>3643</v>
+      </c>
+      <c r="J28" s="49">
+        <v>0</v>
+      </c>
+      <c r="K28" s="49">
+        <v>568</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49">
+        <v>178.23330000000001</v>
+      </c>
+      <c r="N28" s="48">
+        <v>183</v>
+      </c>
+      <c r="P28" s="78">
+        <f t="shared" si="2"/>
+        <v>0.31379102112676061</v>
+      </c>
+      <c r="T28" s="76">
+        <f t="shared" si="4"/>
+        <v>4.8465308563331231</v>
+      </c>
+      <c r="U28" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>568,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="48">
+        <v>11070</v>
+      </c>
+      <c r="C29" s="49">
+        <v>11001.1333</v>
+      </c>
+      <c r="D29" s="49">
+        <v>10988.6667</v>
+      </c>
+      <c r="E29" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F29" s="50">
+        <v>10589.2</v>
+      </c>
+      <c r="G29" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49">
+        <f>I17</f>
+        <v>3502</v>
+      </c>
+      <c r="J29" s="49">
+        <v>0</v>
+      </c>
+      <c r="K29" s="49">
+        <f>K17</f>
+        <v>536</v>
+      </c>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49">
+        <v>300.4667</v>
+      </c>
+      <c r="N29" s="48">
+        <v>306</v>
+      </c>
+      <c r="P29" s="78">
+        <f t="shared" si="2"/>
+        <v>0.56057220149253728</v>
+      </c>
+      <c r="T29" s="76">
+        <f t="shared" si="4"/>
+        <v>3.7441710374417068</v>
+      </c>
+      <c r="U29" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>536,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="48">
+        <v>10381</v>
+      </c>
+      <c r="C30" s="49">
+        <v>10330.033299999999</v>
+      </c>
+      <c r="D30" s="49">
+        <v>10325.1333</v>
+      </c>
+      <c r="E30" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F30" s="50">
+        <v>9999.7999999999993</v>
+      </c>
+      <c r="G30" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49">
+        <f t="shared" ref="I30:K40" si="16">I18</f>
+        <v>4254</v>
+      </c>
+      <c r="J30" s="49">
+        <v>0</v>
+      </c>
+      <c r="K30" s="49">
+        <f t="shared" si="16"/>
+        <v>491</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49">
+        <v>278.63330000000002</v>
+      </c>
+      <c r="N30" s="48">
+        <v>287</v>
+      </c>
+      <c r="P30" s="78">
+        <f t="shared" si="2"/>
+        <v>0.56748126272912425</v>
+      </c>
+      <c r="T30" s="76">
+        <f t="shared" si="4"/>
+        <v>3.1965150048402782</v>
+      </c>
+      <c r="U30" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>491,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="48">
+        <v>9362</v>
+      </c>
+      <c r="C31" s="49">
+        <v>9319.5</v>
+      </c>
+      <c r="D31" s="49">
+        <v>9314.6332999999995</v>
+      </c>
+      <c r="E31" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F31" s="50">
+        <v>9100.1</v>
+      </c>
+      <c r="G31" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49">
+        <f t="shared" si="16"/>
+        <v>2844</v>
+      </c>
+      <c r="J31" s="49">
+        <v>0</v>
+      </c>
+      <c r="K31" s="49">
+        <f t="shared" si="16"/>
+        <v>456</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49">
+        <v>259</v>
+      </c>
+      <c r="N31" s="48">
+        <v>266</v>
+      </c>
+      <c r="P31" s="78">
+        <f t="shared" si="2"/>
+        <v>0.56798245614035092</v>
+      </c>
+      <c r="T31" s="76">
+        <f t="shared" si="4"/>
+        <v>2.3542035516926836</v>
+      </c>
+      <c r="U31" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>456,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="48">
+        <v>8174</v>
+      </c>
+      <c r="C32" s="49">
+        <v>8139.3333000000002</v>
+      </c>
+      <c r="D32" s="49">
+        <v>8136.3333000000002</v>
+      </c>
+      <c r="E32" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F32" s="50">
+        <v>7968</v>
+      </c>
+      <c r="G32" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49">
+        <f t="shared" si="16"/>
+        <v>3186</v>
+      </c>
+      <c r="J32" s="49">
+        <v>0</v>
+      </c>
+      <c r="K32" s="49">
+        <f t="shared" si="16"/>
+        <v>399</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49">
+        <v>224.23330000000001</v>
+      </c>
+      <c r="N32" s="48">
+        <v>230</v>
+      </c>
+      <c r="P32" s="78">
+        <f t="shared" si="2"/>
+        <v>0.56198822055137854</v>
+      </c>
+      <c r="T32" s="76">
+        <f t="shared" si="4"/>
+        <v>2.1046035899893134</v>
+      </c>
+      <c r="U32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>399,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="48">
+        <v>8897</v>
+      </c>
+      <c r="C33" s="49">
+        <v>8851.8667000000005</v>
+      </c>
+      <c r="D33" s="49">
+        <v>8845.8333000000002</v>
+      </c>
+      <c r="E33" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F33" s="50">
+        <v>8660</v>
+      </c>
+      <c r="G33" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49">
+        <f t="shared" si="16"/>
+        <v>2690</v>
+      </c>
+      <c r="J33" s="49">
+        <v>0</v>
+      </c>
+      <c r="K33" s="49">
+        <f t="shared" si="16"/>
+        <v>445</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49">
+        <v>252.9</v>
+      </c>
+      <c r="N33" s="48">
+        <v>257</v>
+      </c>
+      <c r="P33" s="78">
+        <f t="shared" si="2"/>
+        <v>0.56831460674157308</v>
+      </c>
+      <c r="T33" s="76">
+        <f t="shared" si="4"/>
+        <v>2.1678961578870033</v>
+      </c>
+      <c r="U33" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>445,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="48">
+        <v>6553</v>
+      </c>
+      <c r="C34" s="49">
+        <v>6533.3</v>
+      </c>
+      <c r="D34" s="49">
+        <v>6529.4666999999999</v>
+      </c>
+      <c r="E34" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F34" s="50">
+        <v>6470.2</v>
+      </c>
+      <c r="G34" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49">
+        <f t="shared" si="16"/>
+        <v>2650</v>
+      </c>
+      <c r="J34" s="49">
+        <v>0</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="16"/>
+        <v>315</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49">
+        <v>188.5667</v>
+      </c>
+      <c r="N34" s="48">
+        <v>193</v>
+      </c>
+      <c r="P34" s="78">
+        <f t="shared" si="2"/>
+        <v>0.5986244444444444</v>
+      </c>
+      <c r="T34" s="76">
+        <f t="shared" si="4"/>
+        <v>0.96582125419007792</v>
+      </c>
+      <c r="U34" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>315,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="55" customFormat="1">
+      <c r="A35" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="53">
+        <v>8501</v>
+      </c>
+      <c r="C35" s="54">
+        <v>8455.6</v>
+      </c>
+      <c r="D35" s="54">
+        <v>8457.6</v>
+      </c>
+      <c r="E35" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="F35" s="51">
+        <v>8326.7999999999993</v>
+      </c>
+      <c r="G35" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H35" s="75">
+        <f>(D35-C35)/C35</f>
+        <v>2.3652963716353658E-4</v>
+      </c>
+      <c r="I35" s="54">
+        <f t="shared" si="16"/>
+        <v>2512</v>
+      </c>
+      <c r="J35" s="54">
+        <v>0</v>
+      </c>
+      <c r="K35" s="54">
+        <f t="shared" si="16"/>
+        <v>423</v>
+      </c>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54">
+        <v>241.83330000000001</v>
+      </c>
+      <c r="N35" s="53">
+        <v>248</v>
+      </c>
+      <c r="P35" s="75">
+        <f t="shared" si="2"/>
+        <v>0.57170992907801421</v>
+      </c>
+      <c r="T35" s="76">
+        <f t="shared" si="4"/>
+        <v>1.5232508633331885</v>
+      </c>
+      <c r="U35" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>423,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="48">
+        <v>6063</v>
+      </c>
+      <c r="C36" s="49">
+        <v>6045.5</v>
+      </c>
+      <c r="D36" s="49">
+        <v>6041.5</v>
+      </c>
+      <c r="E36" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F36" s="50">
+        <v>5986.5</v>
+      </c>
+      <c r="G36" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49">
+        <f t="shared" si="16"/>
+        <v>2246</v>
+      </c>
+      <c r="J36" s="49">
+        <v>0</v>
+      </c>
+      <c r="K36" s="49">
+        <f t="shared" si="16"/>
+        <v>294</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49">
+        <v>169.5667</v>
+      </c>
+      <c r="N36" s="48">
+        <v>173</v>
+      </c>
+      <c r="P36" s="78">
+        <f t="shared" si="2"/>
+        <v>0.57675748299319729</v>
+      </c>
+      <c r="T36" s="76">
+        <f t="shared" si="4"/>
+        <v>0.97593251178562568</v>
+      </c>
+      <c r="U36" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>294,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="48">
+        <v>15540</v>
+      </c>
+      <c r="C37" s="49">
+        <v>15378.8667</v>
+      </c>
+      <c r="D37" s="49">
+        <v>15362.566699999999</v>
+      </c>
+      <c r="E37" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F37" s="50">
+        <v>14437.7</v>
+      </c>
+      <c r="G37" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49">
+        <f t="shared" si="16"/>
+        <v>4060</v>
+      </c>
+      <c r="J37" s="49">
+        <v>0</v>
+      </c>
+      <c r="K37" s="49">
+        <f t="shared" si="16"/>
+        <v>768</v>
+      </c>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49">
+        <v>404.8</v>
+      </c>
+      <c r="N37" s="48">
+        <v>411</v>
+      </c>
+      <c r="P37" s="78">
+        <f t="shared" si="2"/>
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="T37" s="76">
+        <f t="shared" si="4"/>
+        <v>6.1200736073451214</v>
+      </c>
+      <c r="U37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>768,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="48">
+        <v>12585</v>
+      </c>
+      <c r="C38" s="49">
+        <v>12496.2333</v>
+      </c>
+      <c r="D38" s="49">
+        <v>12484.1</v>
+      </c>
+      <c r="E38" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F38" s="50">
+        <v>11883.5</v>
+      </c>
+      <c r="G38" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49">
+        <f t="shared" si="16"/>
+        <v>4368</v>
+      </c>
+      <c r="J38" s="49">
+        <v>0</v>
+      </c>
+      <c r="K38" s="49">
+        <f t="shared" si="16"/>
+        <v>617</v>
+      </c>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49">
+        <v>334.16669999999999</v>
+      </c>
+      <c r="N38" s="48">
+        <v>342</v>
+      </c>
+      <c r="P38" s="78">
+        <f t="shared" si="2"/>
+        <v>0.54159918962722853</v>
+      </c>
+      <c r="T38" s="76">
+        <f t="shared" si="4"/>
+        <v>4.9030905395240207</v>
+      </c>
+      <c r="U38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>617,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="48">
+        <v>15096</v>
+      </c>
+      <c r="C39" s="49">
+        <v>14949.433300000001</v>
+      </c>
+      <c r="D39" s="49">
+        <v>14920.433300000001</v>
+      </c>
+      <c r="E39" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F39" s="50">
+        <v>14036.6</v>
+      </c>
+      <c r="G39" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49">
+        <f t="shared" si="16"/>
+        <v>3566</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0</v>
+      </c>
+      <c r="K39" s="49">
+        <f t="shared" si="16"/>
+        <v>765</v>
+      </c>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49">
+        <v>397.7</v>
+      </c>
+      <c r="N39" s="48">
+        <v>403</v>
+      </c>
+      <c r="P39" s="78">
+        <f t="shared" si="2"/>
+        <v>0.51986928104575159</v>
+      </c>
+      <c r="T39" s="76">
+        <f t="shared" si="4"/>
+        <v>6.1059306728029172</v>
+      </c>
+      <c r="U39" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>765,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="48">
+        <v>11369</v>
+      </c>
+      <c r="C40" s="49">
+        <v>11290.033299999999</v>
+      </c>
+      <c r="D40" s="49">
+        <v>11286.2667</v>
+      </c>
+      <c r="E40" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="F40" s="50">
+        <v>10790.7</v>
+      </c>
+      <c r="G40" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49">
+        <f t="shared" si="16"/>
+        <v>3643</v>
+      </c>
+      <c r="J40" s="49">
+        <v>0</v>
+      </c>
+      <c r="K40" s="49">
+        <f t="shared" si="16"/>
+        <v>568</v>
+      </c>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="N40" s="48">
+        <v>305</v>
+      </c>
+      <c r="P40" s="78">
+        <f t="shared" si="2"/>
+        <v>0.52799295774647881</v>
+      </c>
+      <c r="T40" s="76">
+        <f t="shared" si="4"/>
+        <v>4.4224977856510126</v>
+      </c>
+      <c r="U40" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>568,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="K42" s="49">
+        <f>AVERAGE(K2:K40)</f>
+        <v>530.87179487179492</v>
+      </c>
+      <c r="P42" s="78">
+        <f>MEDIAN(P2:P40)</f>
+        <v>0.50353340000000002</v>
+      </c>
+      <c r="T42" s="76">
+        <f>MEDIAN(T2:T40)</f>
+        <v>2.8018481674531732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="K43" s="49">
+        <f>MEDIAN(K2:K40)</f>
+        <v>500</v>
+      </c>
+      <c r="P43" s="81">
+        <f>AVERAGE(P2:P40)</f>
+        <v>0.47832672972370843</v>
+      </c>
+      <c r="T43" s="76">
+        <f>AVERAGE(T2:T40)</f>
+        <v>2.9613521440818928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>